--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_sqlite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F210BF-E8D2-4BB9-B7F7-942F13D24A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF986AF-1B40-44B3-AC39-304113548733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1350" windowWidth="27030" windowHeight="14130" activeTab="2" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
+    <workbookView xWindow="8790" yWindow="2745" windowWidth="28800" windowHeight="15345" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="10" r:id="rId1"/>
     <sheet name="lambda" sheetId="15" r:id="rId2"/>
     <sheet name="tmswap" sheetId="16" r:id="rId3"/>
     <sheet name="examples" sheetId="13" r:id="rId4"/>
+    <sheet name="different" sheetId="17" r:id="rId5"/>
+    <sheet name="match" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="absolute" comment="comment">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,rule("absdiff",_xlpm.a,"le",quote(_xlpm.v)))</definedName>
@@ -24,7 +26,7 @@
     <definedName name="bind">examples!$L$12</definedName>
     <definedName name="both_housing">Rules!#REF!</definedName>
     <definedName name="buyer">_xlfn.LAMBDA(_xlpm.a,"$"&amp;_xlpm.a)</definedName>
-    <definedName name="clientId">#REF!</definedName>
+    <definedName name="clientId">tmswap!$E$3</definedName>
     <definedName name="clientId_ne">Rules!#REF!</definedName>
     <definedName name="cmp">examples!$R$3</definedName>
     <definedName name="cusip">tmswap!$F$3</definedName>
@@ -39,6 +41,7 @@
     <definedName name="name">tmswap!$C$3</definedName>
     <definedName name="object">_xlfn.LAMBDA(_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, "{"&amp;_xlfn.TEXTJOIN(", ",TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g)&amp;"}")</definedName>
     <definedName name="ops">lambda!$B$7:$C$12</definedName>
+    <definedName name="positionId">tmswap!$G$3</definedName>
     <definedName name="prepare">examples!$L$11</definedName>
     <definedName name="quote">_xlfn.LAMBDA(_xlpm.x, _xlfn.LET(_xlpm.y, TRIM(_xlpm.x), IF(LEN(_xlpm.y) = 0, "", _xlfn.SWITCH(TYPE(_xlpm.x), 1, _xlpm.x, 2, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), 4, IF(_xlpm.x, "true", "false"), 64, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), ""))))</definedName>
     <definedName name="relative">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, "ABS(("&amp;_xlpm.a&amp;" - "&amp;_xlpm.b&amp;")/"&amp;_xlpm.a&amp;")")</definedName>
@@ -97,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
   <si>
     <t>clientId</t>
   </si>
@@ -405,9 +408,6 @@
     <t>{"args": [{"args": [{"args": "quantity", "cmp": "eq"}, {"expr": "first", "args": "quantity", "cmp": "le", "value": 500}], "cmp": "and"}, {"args": [{"expr": "first", "args": "quantity", "cmp": "gt", "value": 500}, {"expr": "reldiff", "args": "quantity", "cmp": "le", "value": 0.1}, {"expr": "second", "args": "quantity", "cmp": "ge", "value": 500}], "cmp": "and"}], "cmp": "or"}</t>
   </si>
   <si>
-    <t>160853VE4</t>
-  </si>
-  <si>
     <t>lt</t>
   </si>
   <si>
@@ -432,41 +432,32 @@
     <t>&gt;=</t>
   </si>
   <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>stmt</t>
-  </si>
-  <si>
-    <t>bind</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>prepare</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>select cusip,</t>
-  </si>
-  <si>
-    <t>order by</t>
-  </si>
-  <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>select_cusip_name</t>
+    <t>positionId</t>
+  </si>
+  <si>
+    <t>CLT3414</t>
+  </si>
+  <si>
+    <t>56682HCT4</t>
+  </si>
+  <si>
+    <t>7d50ed8778a64c0bb477c7529931e7ca</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>useOfProceedsGroup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,8 +494,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +527,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -547,20 +559,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -581,14 +600,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -903,9 +924,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1412,15 +1433,15 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1428,15 +1449,15 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1444,7 +1465,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1458,2078 +1479,737 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B6914C-A946-468C-AF1D-0A37D33E2963}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:T78"/>
+  <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="6" cm="1">
         <f t="array" ref="C2">_xll.\SQL.DB("db/tmswap.db")</f>
-        <v>1961865881072</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+        <v>1454380321728</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
+      <c r="C3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" cm="1">
-        <f t="array" ref="I3">_xlfn.LAMBDA(_xlpm.c,_xlpm.n,_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlpm.n&amp;" from swapRequests where cusip = """&amp;_xlpm.c&amp;""""),1))(cusip,name)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f>name</f>
-        <v>coupon</v>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I4" cm="1">
-        <f t="array" ref="I4">select_cusip_name(cusip,name)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f>C73</f>
+        <v>useOfProceeds</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f>C74</f>
+        <v>useOfProceedsGroup</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5:B10">_xlfn.DROP(INDEX(_xll.SQL.TABLE_LIST(tmswap),,2),1)</f>
-        <v>swapRequests</v>
+        <v>rulesets</v>
       </c>
       <c r="C5" t="str" cm="1">
         <f t="array" ref="C5:C75">_xlfn.DROP(INDEX(_xll.SQL.TABLE_INFO(tmswap,table),,2),1)</f>
         <v>_id</v>
       </c>
-      <c r="D5" cm="1">
-        <f t="array" ref="D5:D14">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;name&amp;" from "&amp;table&amp;" limit "&amp;D3),1)</f>
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5:E6">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select distinct "&amp;E4&amp;" from swapRequests order by "&amp;E4),1)</f>
+        <v>CLT3414</v>
+      </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5:F77">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select cusip from swapRequests where clientId = '"&amp;E3&amp;"'"), 1)</f>
+        <v>215543MJ5</v>
+      </c>
+      <c r="G5" t="str" cm="1">
+        <f t="array" ref="G5:G7">_xlfn.DROP(_xll.SQL.QUERY(tmswap, "select "&amp;G4&amp;" from swapRequests where clientId = '"&amp;E3&amp;"' and cusip = '"&amp;F3&amp;"'"), 1)</f>
+        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
+      </c>
+      <c r="H5" s="11" cm="1">
+        <f t="array" ref="H5:L5">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,H4:L4)&amp;" from swapRequests where positionId = '"&amp;G3&amp;"'"),1)</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3.222</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2475</v>
+      </c>
+      <c r="K5" s="11">
+        <v>28</v>
+      </c>
+      <c r="L5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5:F57">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select distinct cusip from swapRequests where calcStatus = 1 order by cusip"),1)</f>
-        <v>004284ZH1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
-        <v>positions</v>
+        <v>clients</v>
       </c>
       <c r="C6" t="str">
         <v>_swapRequestKey</v>
       </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="E6" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F6" t="str">
-        <v>016730DA8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+        <v>59333NW66</v>
+      </c>
+      <c r="G6" t="str">
+        <v>73e88cd91df843fbbec3f56f049518e4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
-        <v>clients</v>
+        <v>positions</v>
       </c>
       <c r="C7" t="str">
         <v>accountXref</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="F7" t="str">
-        <v>02765UQJ6</v>
-      </c>
-      <c r="H7" s="10" t="str" cm="1">
-        <f t="array" ref="H7:M13">_xll.SQL.TABLE_LIST(tmswap)</f>
-        <v>schema</v>
-      </c>
-      <c r="I7" s="10" t="str">
-        <v>name</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <v>type</v>
-      </c>
-      <c r="K7" s="10" t="str">
-        <v>ncol</v>
-      </c>
-      <c r="L7" s="10" t="str">
-        <v>wr</v>
-      </c>
-      <c r="M7" s="10" t="str">
-        <v>strict</v>
-      </c>
-      <c r="O7" s="10" t="str" cm="1">
-        <f t="array" ref="O7:T78">_xll.SQL.TABLE_INFO(tmswap,table)</f>
-        <v>cid</v>
-      </c>
-      <c r="P7" s="10" t="str">
-        <v>name</v>
-      </c>
-      <c r="Q7" s="10" t="str">
-        <v>type</v>
-      </c>
-      <c r="R7" s="10" t="str">
-        <v>notnull</v>
-      </c>
-      <c r="S7" s="10" t="str">
-        <v>dflt_value</v>
-      </c>
-      <c r="T7" s="10" t="str">
-        <v>pk</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+        <v>60637ATQ5</v>
+      </c>
+      <c r="G7" t="str">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
-        <v>rulesets</v>
+        <v>swapRequests</v>
       </c>
       <c r="C8" t="str">
         <v>accrualDate</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
       <c r="F8" t="str">
-        <v>03255LHE2</v>
-      </c>
-      <c r="H8" t="str">
-        <v>main</v>
-      </c>
-      <c r="I8" t="str">
-        <v>swapRequests</v>
-      </c>
-      <c r="J8" t="str">
-        <v>table</v>
-      </c>
-      <c r="K8">
-        <v>71</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="str">
-        <v>_id</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="str">
-        <v/>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+        <v>56682HCT4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <v>sqlite_schema</v>
       </c>
       <c r="C9" t="str">
         <v>accruedDays</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
       <c r="F9" t="str">
-        <v>03255LHG7</v>
-      </c>
-      <c r="H9" t="str">
-        <v>main</v>
-      </c>
-      <c r="I9" t="str">
-        <v>positions</v>
-      </c>
-      <c r="J9" t="str">
-        <v>table</v>
-      </c>
-      <c r="K9">
-        <v>19</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="str">
-        <v>_swapRequestKey</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="str">
-        <v/>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+        <v>56682HCT4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <v>sqlite_temp_schema</v>
       </c>
       <c r="C10" t="str">
         <v>accruedInterest</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="F10" t="str">
-        <v>03880NAA6</v>
-      </c>
-      <c r="H10" t="str">
-        <v>main</v>
-      </c>
-      <c r="I10" t="str">
-        <v>clients</v>
-      </c>
-      <c r="J10" t="str">
-        <v>table</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10" t="str">
-        <v>accountXref</v>
-      </c>
-      <c r="Q10" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="str">
-        <v/>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+        <v>56682HCT4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
         <v>acl</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
       <c r="F11" t="str">
-        <v>040523AF9</v>
-      </c>
-      <c r="H11" t="str">
-        <v>main</v>
-      </c>
-      <c r="I11" t="str">
-        <v>rulesets</v>
-      </c>
-      <c r="J11" t="str">
-        <v>table</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11" t="str">
-        <v>accrualDate</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="str">
-        <v/>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+        <v>664212CY1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" t="str">
         <v>actorId</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
       <c r="F12" t="str">
-        <v>11023PAA2</v>
-      </c>
-      <c r="H12" t="str">
-        <v>main</v>
-      </c>
-      <c r="I12" t="str">
-        <v>sqlite_schema</v>
-      </c>
-      <c r="J12" t="str">
-        <v>table</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12" t="str">
-        <v>accruedDays</v>
-      </c>
-      <c r="Q12" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="str">
-        <v/>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+        <v>57583PHD4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="str">
         <v>allocations</v>
       </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
       <c r="F13" t="str">
-        <v>13034AV49</v>
-      </c>
-      <c r="H13" t="str">
-        <v>temp</v>
-      </c>
-      <c r="I13" t="str">
-        <v>sqlite_temp_schema</v>
-      </c>
-      <c r="J13" t="str">
-        <v>table</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13" t="str">
-        <v>accruedInterest</v>
-      </c>
-      <c r="Q13" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="str">
-        <v/>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+        <v>662523N39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <v>bankQualified</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
       <c r="F14" t="str">
-        <v>13080SXY5</v>
-      </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14" t="str">
-        <v>acl</v>
-      </c>
-      <c r="Q14" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="str">
-        <v/>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+        <v>645790MD5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <v>bondType</v>
       </c>
       <c r="F15" t="str">
-        <v>132047BX8</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
-      <c r="P15" t="str">
-        <v>actorId</v>
-      </c>
-      <c r="Q15" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="str">
-        <v/>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+        <v>40934TAV5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" t="str">
         <v>calcStatus</v>
       </c>
       <c r="F16" t="str">
-        <v>140542BK6</v>
-      </c>
-      <c r="O16">
-        <v>8</v>
-      </c>
-      <c r="P16" t="str">
-        <v>allocations</v>
-      </c>
-      <c r="Q16" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="str">
-        <v/>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+        <v>40934TAV5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="str">
         <v>callable</v>
       </c>
       <c r="F17" t="str">
-        <v>160853VE4</v>
-      </c>
-      <c r="O17">
-        <v>9</v>
-      </c>
-      <c r="P17" t="str">
-        <v>bankQualified</v>
-      </c>
-      <c r="Q17" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="str">
-        <v/>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+        <v>40934TAV5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="str">
         <v>cepAskPrice</v>
       </c>
       <c r="F18" t="str">
-        <v>180848XD0</v>
-      </c>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18" t="str">
-        <v>bondType</v>
-      </c>
-      <c r="Q18" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="str">
-        <v/>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+        <v>13034AV49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="str">
         <v>cepBidPrice</v>
       </c>
       <c r="F19" t="str">
-        <v>180848XE8</v>
-      </c>
-      <c r="O19">
-        <v>11</v>
-      </c>
-      <c r="P19" t="str">
-        <v>calcStatus</v>
-      </c>
-      <c r="Q19" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="str">
-        <v/>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+        <v>180848XS7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
         <v>clientId</v>
       </c>
       <c r="F20" t="str">
-        <v>19648FXB5</v>
-      </c>
-      <c r="O20">
-        <v>12</v>
-      </c>
-      <c r="P20" t="str">
-        <v>callable</v>
-      </c>
-      <c r="Q20" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="str">
-        <v/>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+        <v>505786KN2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
         <v>coupon</v>
       </c>
       <c r="F21" t="str">
-        <v>19648FXC3</v>
-      </c>
-      <c r="O21">
-        <v>13</v>
-      </c>
-      <c r="P21" t="str">
-        <v>cepAskPrice</v>
-      </c>
-      <c r="Q21" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="str">
-        <v/>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+        <v>717901BN1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="str">
         <v>couponType</v>
       </c>
       <c r="F22" t="str">
-        <v>20774YJ99</v>
-      </c>
-      <c r="O22">
-        <v>14</v>
-      </c>
-      <c r="P22" t="str">
-        <v>cepBidPrice</v>
-      </c>
-      <c r="Q22" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="str">
-        <v/>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+        <v>600293QS6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
         <v>currencyCode</v>
       </c>
       <c r="F23" t="str">
-        <v>217558AB1</v>
-      </c>
-      <c r="O23">
-        <v>15</v>
-      </c>
-      <c r="P23" t="str">
-        <v>clientId</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="str">
-        <v/>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+        <v>215543ML0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
         <v>cusip</v>
       </c>
       <c r="F24" t="str">
-        <v>251237W66</v>
-      </c>
-      <c r="O24">
-        <v>16</v>
-      </c>
-      <c r="P24" t="str">
-        <v>coupon</v>
-      </c>
-      <c r="Q24" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="str">
-        <v/>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+        <v>015303AU4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="str">
         <v>displayName</v>
       </c>
       <c r="F25" t="str">
-        <v>287549AR0</v>
-      </c>
-      <c r="O25">
-        <v>17</v>
-      </c>
-      <c r="P25" t="str">
-        <v>couponType</v>
-      </c>
-      <c r="Q25" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="str">
-        <v/>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+        <v>57585JVZ1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="str">
         <v>dv01</v>
       </c>
       <c r="F26" t="str">
-        <v>38543PAE8</v>
-      </c>
-      <c r="O26">
-        <v>18</v>
-      </c>
-      <c r="P26" t="str">
-        <v>currencyCode</v>
-      </c>
-      <c r="Q26" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="str">
-        <v/>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+        <v>93974EEA0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="str">
         <v>edur</v>
       </c>
       <c r="F27" t="str">
-        <v>512804VX0</v>
-      </c>
-      <c r="O27">
-        <v>19</v>
-      </c>
-      <c r="P27" t="str">
-        <v>cusip</v>
-      </c>
-      <c r="Q27" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="str">
-        <v/>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+        <v>13063DPG7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="str">
         <v>effectiveMaturity</v>
       </c>
       <c r="F28" t="str">
-        <v>528734AH9</v>
-      </c>
-      <c r="O28">
-        <v>20</v>
-      </c>
-      <c r="P28" t="str">
-        <v>displayName</v>
-      </c>
-      <c r="Q28" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="str">
-        <v/>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+        <v>30383AEU1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="str">
         <v>escrowedToMaturity</v>
       </c>
       <c r="F29" t="str">
-        <v>54640TAD1</v>
-      </c>
-      <c r="O29">
-        <v>21</v>
-      </c>
-      <c r="P29" t="str">
-        <v>dv01</v>
-      </c>
-      <c r="Q29" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="str">
-        <v/>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+        <v>60637ATR3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="str">
         <v>evaluatedPrice</v>
       </c>
       <c r="F30" t="str">
-        <v>56682HCT4</v>
-      </c>
-      <c r="O30">
-        <v>22</v>
-      </c>
-      <c r="P30" t="str">
-        <v>edur</v>
-      </c>
-      <c r="Q30" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="str">
-        <v/>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+        <v>68609BZW0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="str">
         <v>federalTaxStatus</v>
       </c>
       <c r="F31" t="str">
-        <v>574069AD2</v>
-      </c>
-      <c r="O31">
-        <v>23</v>
-      </c>
-      <c r="P31" t="str">
-        <v>effectiveMaturity</v>
-      </c>
-      <c r="Q31" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="str">
-        <v/>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+        <v>717901BP6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="str">
         <v>firstSettlementDate</v>
       </c>
       <c r="F32" t="str">
-        <v>57584YWK1</v>
-      </c>
-      <c r="O32">
-        <v>24</v>
-      </c>
-      <c r="P32" t="str">
-        <v>escrowedToMaturity</v>
-      </c>
-      <c r="Q32" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32" t="str">
-        <v/>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+        <v>052430UR4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="str">
         <v>issueDate</v>
       </c>
       <c r="F33" t="str">
-        <v>59212TAH9</v>
-      </c>
-      <c r="O33">
-        <v>25</v>
-      </c>
-      <c r="P33" t="str">
-        <v>evaluatedPrice</v>
-      </c>
-      <c r="Q33" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33" t="str">
-        <v/>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+        <v>052430VA0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="str">
         <v>issuerCode</v>
       </c>
       <c r="F34" t="str">
-        <v>60637ATQ5</v>
-      </c>
-      <c r="O34">
-        <v>26</v>
-      </c>
-      <c r="P34" t="str">
-        <v>federalTaxStatus</v>
-      </c>
-      <c r="Q34" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34" t="str">
-        <v/>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+        <v>25477GSG1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="str">
         <v>matches</v>
       </c>
       <c r="F35" t="str">
-        <v>60637ATR3</v>
-      </c>
-      <c r="O35">
-        <v>27</v>
-      </c>
-      <c r="P35" t="str">
-        <v>firstSettlementDate</v>
-      </c>
-      <c r="Q35" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35" t="str">
-        <v/>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+        <v>594695Y93</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="str">
         <v>midPrice</v>
       </c>
       <c r="F36" t="str">
-        <v>613554AG9</v>
-      </c>
-      <c r="O36">
-        <v>28</v>
-      </c>
-      <c r="P36" t="str">
-        <v>issueDate</v>
-      </c>
-      <c r="Q36" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36" t="str">
-        <v/>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+        <v>160853VE4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="str">
         <v>minBalance</v>
       </c>
       <c r="F37" t="str">
-        <v>64542PAU9</v>
-      </c>
-      <c r="O37">
-        <v>29</v>
-      </c>
-      <c r="P37" t="str">
-        <v>issuerCode</v>
-      </c>
-      <c r="Q37" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37" t="str">
-        <v/>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+        <v>495260M65</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="str">
         <v>minQuantity</v>
       </c>
       <c r="F38" t="str">
-        <v>645790MD5</v>
-      </c>
-      <c r="O38">
-        <v>30</v>
-      </c>
-      <c r="P38" t="str">
-        <v>matches</v>
-      </c>
-      <c r="Q38" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38" t="str">
-        <v/>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+        <v>198504ZV7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="str">
         <v>oad</v>
       </c>
       <c r="F39" t="str">
-        <v>649451GP0</v>
-      </c>
-      <c r="O39">
-        <v>31</v>
-      </c>
-      <c r="P39" t="str">
-        <v>midPrice</v>
-      </c>
-      <c r="Q39" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39" t="str">
-        <v/>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+        <v>678519F61</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="str">
         <v>oas</v>
       </c>
       <c r="F40" t="str">
-        <v>64972ENB1</v>
-      </c>
-      <c r="O40">
-        <v>32</v>
-      </c>
-      <c r="P40" t="str">
-        <v>minBalance</v>
-      </c>
-      <c r="Q40" t="str">
-        <v/>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40" t="str">
-        <v/>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+        <v>68609TD70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="str">
         <v>outstandingAmount</v>
       </c>
       <c r="F41" t="str">
-        <v>64987JPX3</v>
-      </c>
-      <c r="O41">
-        <v>33</v>
-      </c>
-      <c r="P41" t="str">
-        <v>minQuantity</v>
-      </c>
-      <c r="Q41" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41" t="str">
-        <v/>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+        <v>60412AQV8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="str">
         <v>paymentFrequency</v>
       </c>
       <c r="F42" t="str">
-        <v>650010CR0</v>
-      </c>
-      <c r="O42">
-        <v>34</v>
-      </c>
-      <c r="P42" t="str">
-        <v>oad</v>
-      </c>
-      <c r="Q42" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42" t="str">
-        <v/>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+        <v>373046YQ8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" t="str">
         <v>positionId</v>
       </c>
       <c r="F43" t="str">
-        <v>67868NBM0</v>
-      </c>
-      <c r="O43">
-        <v>35</v>
-      </c>
-      <c r="P43" t="str">
-        <v>oas</v>
-      </c>
-      <c r="Q43" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43" t="str">
-        <v/>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+        <v>198045MM5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" t="str">
         <v>positionIds</v>
       </c>
       <c r="F44" t="str">
-        <v>684593AB2</v>
-      </c>
-      <c r="O44">
-        <v>36</v>
-      </c>
-      <c r="P44" t="str">
-        <v>outstandingAmount</v>
-      </c>
-      <c r="Q44" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44" t="str">
-        <v/>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+        <v>30382ALS9</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" t="str">
         <v>positionXref</v>
       </c>
       <c r="F45" t="str">
-        <v>69373SAA0</v>
-      </c>
-      <c r="O45">
-        <v>37</v>
-      </c>
-      <c r="P45" t="str">
-        <v>paymentFrequency</v>
-      </c>
-      <c r="Q45" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45" t="str">
-        <v/>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+        <v>57582RJ64</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" t="str">
         <v>preRefunded</v>
       </c>
       <c r="F46" t="str">
-        <v>70879PAA3</v>
-      </c>
-      <c r="O46">
-        <v>38</v>
-      </c>
-      <c r="P46" t="str">
-        <v>positionId</v>
-      </c>
-      <c r="Q46" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46" t="str">
-        <v/>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+        <v>13080SXY5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" t="str">
         <v>price</v>
       </c>
       <c r="F47" t="str">
-        <v>709224SS9</v>
-      </c>
-      <c r="O47">
-        <v>39</v>
-      </c>
-      <c r="P47" t="str">
-        <v>positionIds</v>
-      </c>
-      <c r="Q47" t="str">
-        <v/>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47" t="str">
-        <v/>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+        <v>13080SXY5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" t="str">
         <v>purchaseDate</v>
       </c>
       <c r="F48" t="str">
-        <v>73421LAA9</v>
-      </c>
-      <c r="O48">
-        <v>40</v>
-      </c>
-      <c r="P48" t="str">
-        <v>positionXref</v>
-      </c>
-      <c r="Q48" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48" t="str">
-        <v/>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+        <v>25483VWR1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="str">
         <v>purchasePrice</v>
       </c>
       <c r="F49" t="str">
-        <v>797272NT4</v>
-      </c>
-      <c r="O49">
-        <v>41</v>
-      </c>
-      <c r="P49" t="str">
-        <v>preRefunded</v>
-      </c>
-      <c r="Q49" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49" t="str">
-        <v/>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+        <v>20772KLU1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="str">
         <v>quantity</v>
       </c>
       <c r="F50" t="str">
-        <v>801315AU6</v>
-      </c>
-      <c r="O50">
-        <v>42</v>
-      </c>
-      <c r="P50" t="str">
-        <v>price</v>
-      </c>
-      <c r="Q50" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50" t="str">
-        <v/>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+        <v>57584YWK1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="str">
         <v>ratingRank</v>
       </c>
       <c r="F51" t="str">
-        <v>837152UP0</v>
-      </c>
-      <c r="O51">
-        <v>43</v>
-      </c>
-      <c r="P51" t="str">
-        <v>purchaseDate</v>
-      </c>
-      <c r="Q51" t="str">
-        <v/>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51" t="str">
-        <v/>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1998204R9</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="str">
         <v>ratingText</v>
       </c>
       <c r="F52" t="str">
-        <v>84131TAQ5</v>
-      </c>
-      <c r="O52">
-        <v>44</v>
-      </c>
-      <c r="P52" t="str">
-        <v>purchasePrice</v>
-      </c>
-      <c r="Q52" t="str">
-        <v/>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52" t="str">
-        <v/>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+        <v>4211105T0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" t="str">
         <v>redemptionDate</v>
       </c>
       <c r="F53" t="str">
-        <v>87638REK9</v>
-      </c>
-      <c r="O53">
-        <v>45</v>
-      </c>
-      <c r="P53" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="Q53" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53" t="str">
-        <v/>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+        <v>889855P22</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" t="str">
         <v>redemptionPrice</v>
       </c>
       <c r="F54" t="str">
-        <v>88034WPB4</v>
-      </c>
-      <c r="O54">
-        <v>46</v>
-      </c>
-      <c r="P54" t="str">
-        <v>ratingRank</v>
-      </c>
-      <c r="Q54" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54" t="str">
-        <v/>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+        <v>97217PQD4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" t="str">
         <v>rejected</v>
       </c>
       <c r="F55" t="str">
-        <v>88034WYG3</v>
-      </c>
-      <c r="O55">
-        <v>47</v>
-      </c>
-      <c r="P55" t="str">
-        <v>ratingText</v>
-      </c>
-      <c r="Q55" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55" t="str">
-        <v/>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+        <v>97705MKS3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" t="str">
         <v>requestId</v>
       </c>
       <c r="F56" t="str">
-        <v>967787AG7</v>
-      </c>
-      <c r="O56">
-        <v>48</v>
-      </c>
-      <c r="P56" t="str">
-        <v>redemptionDate</v>
-      </c>
-      <c r="Q56" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56" t="str">
-        <v/>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+        <v>631663QT1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" t="str">
         <v>securityKey</v>
       </c>
       <c r="F57" t="str">
-        <v>97712DN77</v>
-      </c>
-      <c r="O57">
-        <v>49</v>
-      </c>
-      <c r="P57" t="str">
-        <v>redemptionPrice</v>
-      </c>
-      <c r="Q57" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57" t="str">
-        <v/>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+        <v>677587DT1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" t="str">
         <v>securityType</v>
       </c>
-      <c r="O58">
-        <v>50</v>
-      </c>
-      <c r="P58" t="str">
-        <v>rejected</v>
-      </c>
-      <c r="Q58" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58" t="str">
-        <v/>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <v>574193QF8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" t="str">
         <v>settlementDate</v>
       </c>
-      <c r="O59">
-        <v>51</v>
-      </c>
-      <c r="P59" t="str">
-        <v>requestId</v>
-      </c>
-      <c r="Q59" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59" t="str">
-        <v/>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <v>88278PYL2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" t="str">
         <v>snif</v>
       </c>
-      <c r="O60">
-        <v>52</v>
-      </c>
-      <c r="P60" t="str">
-        <v>securityKey</v>
-      </c>
-      <c r="Q60" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60" t="str">
-        <v/>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <v>25476FSV1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" t="str">
         <v>spread</v>
       </c>
-      <c r="O61">
-        <v>53</v>
-      </c>
-      <c r="P61" t="str">
-        <v>securityType</v>
-      </c>
-      <c r="Q61" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61" t="str">
-        <v/>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <v>64966MQS1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" t="str">
         <v>srType</v>
       </c>
-      <c r="O62">
-        <v>54</v>
-      </c>
-      <c r="P62" t="str">
-        <v>settlementDate</v>
-      </c>
-      <c r="Q62" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62" t="str">
-        <v/>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <v>574204Q30</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" t="str">
         <v>state</v>
       </c>
-      <c r="O63">
-        <v>55</v>
-      </c>
-      <c r="P63" t="str">
-        <v>snif</v>
-      </c>
-      <c r="Q63" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63" t="str">
-        <v/>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <v>64990FZL1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" t="str">
         <v>subjectToAmt</v>
       </c>
-      <c r="O64">
-        <v>56</v>
-      </c>
-      <c r="P64" t="str">
-        <v>spread</v>
-      </c>
-      <c r="Q64" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64" t="str">
-        <v/>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <v>517845HD8</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="str">
         <v>sustainableDevelopmentGoal</v>
       </c>
-      <c r="O65">
-        <v>57</v>
-      </c>
-      <c r="P65" t="str">
-        <v>srType</v>
-      </c>
-      <c r="Q65" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65" t="str">
-        <v/>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <v>64971XRT7</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="str">
         <v>sustainableDevelopmentScore</v>
       </c>
-      <c r="O66">
-        <v>58</v>
-      </c>
-      <c r="P66" t="str">
-        <v>state</v>
-      </c>
-      <c r="Q66" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66" t="str">
-        <v/>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <v>64971XRT7</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="str">
         <v>swapFailures</v>
       </c>
-      <c r="O67">
-        <v>59</v>
-      </c>
-      <c r="P67" t="str">
-        <v>subjectToAmt</v>
-      </c>
-      <c r="Q67" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67" t="str">
-        <v/>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <v>720611YC0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" t="str">
         <v>swapTradeDate</v>
       </c>
-      <c r="O68">
-        <v>60</v>
-      </c>
-      <c r="P68" t="str">
-        <v>sustainableDevelopmentGoal</v>
-      </c>
-      <c r="Q68" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68" t="str">
-        <v/>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <v>64990FYA6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" t="str">
         <v>taxable</v>
       </c>
-      <c r="O69">
-        <v>61</v>
-      </c>
-      <c r="P69" t="str">
-        <v>sustainableDevelopmentScore</v>
-      </c>
-      <c r="Q69" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69" t="str">
-        <v/>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <v>64972GYW8</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" t="str">
         <v>term</v>
       </c>
-      <c r="O70">
-        <v>62</v>
-      </c>
-      <c r="P70" t="str">
-        <v>swapFailures</v>
-      </c>
-      <c r="Q70" t="str">
-        <v>VARCHAR</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70" t="str">
-        <v/>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <v>15722TGL9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" t="str">
         <v>tradeDate</v>
       </c>
-      <c r="O71">
-        <v>63</v>
-      </c>
-      <c r="P71" t="str">
-        <v>swapTradeDate</v>
-      </c>
-      <c r="Q71" t="str">
-        <v/>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71" t="str">
-        <v/>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <v>650009V75</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" t="str">
         <v>updated</v>
       </c>
-      <c r="O72">
-        <v>64</v>
-      </c>
-      <c r="P72" t="str">
-        <v>taxable</v>
-      </c>
-      <c r="Q72" t="str">
-        <v>BOOLEAN</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72" t="str">
-        <v/>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <v>033717NM7</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" t="str">
         <v>useOfProceeds</v>
       </c>
-      <c r="O73">
-        <v>65</v>
-      </c>
-      <c r="P73" t="str">
-        <v>term</v>
-      </c>
-      <c r="Q73" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73" t="str">
-        <v/>
-      </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <v>64990FZP2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" t="str">
         <v>useOfProceedsGroup</v>
       </c>
-      <c r="O74">
-        <v>66</v>
-      </c>
-      <c r="P74" t="str">
-        <v>tradeDate</v>
-      </c>
-      <c r="Q74" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74" t="str">
-        <v/>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <v>650036CY0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" t="str">
         <v>yield</v>
       </c>
-      <c r="O75">
-        <v>67</v>
-      </c>
-      <c r="P75" t="str">
-        <v>updated</v>
-      </c>
-      <c r="Q75" t="str">
-        <v>DATETIME</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75" t="str">
-        <v/>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O76">
-        <v>68</v>
-      </c>
-      <c r="P76" t="str">
-        <v>useOfProceeds</v>
-      </c>
-      <c r="Q76" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76" t="str">
-        <v/>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O77">
-        <v>69</v>
-      </c>
-      <c r="P77" t="str">
-        <v>useOfProceedsGroup</v>
-      </c>
-      <c r="Q77" t="str">
-        <v>INT</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77" t="str">
-        <v/>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O78">
-        <v>70</v>
-      </c>
-      <c r="P78" t="str">
-        <v>yield</v>
-      </c>
-      <c r="Q78" t="str">
-        <v>FLOAT</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78" t="str">
-        <v/>
-      </c>
-      <c r="T78">
-        <v>0</v>
+      <c r="F75" t="str">
+        <v>34160KBE9</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <v>93974ERP3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <v>25476FZF8</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{99C2BC1E-B213-4884-B153-C871806CC60E}">
       <formula1>_xlfn.ANCHORARRAY($B$5)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{5D31A66D-63A4-4E7A-A694-13004E0489E9}">
       <formula1>_xlfn.ANCHORARRAY($C$5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{5B960C62-2114-462F-8903-03ADF0493CBC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{5B960C62-2114-462F-8903-03ADF0493CBC}">
+      <formula1>_xlfn.ANCHORARRAY($I$5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{6C1AAE84-713C-4050-BF7E-06BC31220898}">
+      <formula1>_xlfn.ANCHORARRAY(#REF!)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{4AF9441E-13D3-437B-8EB8-08E3675822A3}">
+      <formula1>_xlfn.ANCHORARRAY($E$5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{EFE79931-B835-4036-A817-5ED7171B9132}">
       <formula1>_xlfn.ANCHORARRAY($F$5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{6C1AAE84-713C-4050-BF7E-06BC31220898}">
-      <formula1>_xlfn.ANCHORARRAY(#REF!)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{F6753AD6-AC32-4868-8DCB-7100D806FF16}">
+      <formula1>_xlfn.ANCHORARRAY($G$5)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3540,10 +2220,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1079CE7F-5D76-424A-AEDC-E15484778CCD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:S17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3556,7 +2236,7 @@
     <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
@@ -3578,29 +2258,8 @@
         <f t="array" ref="G2">_xll.XLL.GET.NAME(B2)</f>
         <v>=LAMBDA(a,b, "ABS(("&amp;a&amp;" - "&amp;b&amp;")/"&amp;a&amp;")")</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
@@ -3619,31 +2278,8 @@
       <c r="I3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M3" t="e" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">_xlfn.DROP(_xll.SQL.QUERY(tmswap,select_name(M2)),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N3">
-        <v>0.1</v>
-      </c>
-      <c r="P3" t="e" cm="1">
-        <f t="array" aca="1" ref="P3" ca="1">relative(M3,M2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="str">
-        <f>_xlfn.TEXTJOIN("_",FALSE,L2:N2)</f>
-        <v>relative_edur_le</v>
-      </c>
-      <c r="R3" t="str">
-        <f>VLOOKUP(N2,ops,2)</f>
-        <v>&lt;=</v>
-      </c>
-      <c r="S3">
-        <f>N3</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1</v>
       </c>
@@ -3666,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>2</v>
       </c>
@@ -3688,22 +2324,8 @@
         <f>G5=H5</f>
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" t="e">
-        <f ca="1">expr</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" t="str">
-        <f>name</f>
-        <v>relative_edur_le</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>2</v>
       </c>
@@ -3725,43 +2347,8 @@
         <f>G6=H6</f>
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" t="str">
-        <f>name</f>
-        <v>relative_edur_le</v>
-      </c>
-      <c r="N7" t="str">
-        <f>cmp</f>
-        <v>&lt;=</v>
-      </c>
-      <c r="O7" t="str">
-        <f>":"&amp;name</f>
-        <v>:relative_edur_le</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" t="str">
-        <f>name</f>
-        <v>relative_edur_le</v>
-      </c>
-      <c r="N8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>94</v>
       </c>
@@ -3772,7 +2359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>95</v>
       </c>
@@ -3782,34 +2369,17 @@
       <c r="D10" t="s">
         <v>96</v>
       </c>
-      <c r="K10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" cm="1">
-        <f t="array" ref="L10">_xll.\SQL.STMT(tmswap)</f>
-        <v>1961865890592</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="K11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">_xll.SQL.PREPARE(stmt, L5:O8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M11" t="e" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_xll.SQL.SQL(prepare)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>98</v>
       </c>
@@ -3819,30 +2389,13 @@
       <c r="D12">
         <v>13</v>
       </c>
-      <c r="K12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" t="e" cm="1">
-        <f t="array" aca="1" ref="L12" ca="1">_xll.SQL.BIND(prepare, _xlfn.HSTACK(O7,value))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" t="e" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">_xll.SQL.SQL(bind, TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L14" t="e" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">_xll.SQL.EXEC(bind)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>97</v>
       </c>
@@ -3850,6 +2403,419 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DB934-EBCF-423A-A8F2-6B61D523A6D6}">
+  <dimension ref="B2:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:I3">tmswap!E4:L5</f>
+        <v>clientId</v>
+      </c>
+      <c r="C2" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D2" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E2" t="str">
+        <v>coupon</v>
+      </c>
+      <c r="F2" t="str">
+        <v>term</v>
+      </c>
+      <c r="G2" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H2" t="str">
+        <v>useOfProceeds</v>
+      </c>
+      <c r="I2" t="str">
+        <v>useOfProceedsGroup</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C3" t="str">
+        <v>215543MJ5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3.222</v>
+      </c>
+      <c r="G3">
+        <v>2475</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6">C5&amp;" &lt;&gt; '"&amp;_xll.EVAL(C5)&amp;"'"</f>
+        <v>clientId &lt;&gt; 'CLT3414'</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8">"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,B2:I2)&amp;" from swapRequests where "&amp;_xll.SQL.WHERE(B6:B6)</f>
+        <v>select clientId, cusip, positionId, coupon, term, quantity, useOfProceeds, useOfProceedsGroup from swapRequests where ((clientId &lt;&gt; 'CLT3414'))</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10:I20">_xll.SQL.QUERY(tmswap,B8:C9)</f>
+        <v>clientId</v>
+      </c>
+      <c r="C10" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D10" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E10" t="str">
+        <v>coupon</v>
+      </c>
+      <c r="F10" t="str">
+        <v>term</v>
+      </c>
+      <c r="G10" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H10" t="str">
+        <v>useOfProceeds</v>
+      </c>
+      <c r="I10" t="str">
+        <v>useOfProceedsGroup</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C11" t="str">
+        <v>089563NF3</v>
+      </c>
+      <c r="D11" t="str">
+        <v>9185c83341a64e2bbdb51d6ab649af4a</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C12" t="str">
+        <v>089563NG1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>46b6386108834679b36a6dae0120b3a2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C13" t="str">
+        <v>088365JA0</v>
+      </c>
+      <c r="D13" t="str">
+        <v>796324c045eb4296a425b5abcb157673</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>7.9779999999999998</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C14" t="str">
+        <v>143357XK2</v>
+      </c>
+      <c r="D14" t="str">
+        <v>d9d05bc0818e485e8128d8680d83d567</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C15" t="str">
+        <v>088365JB8</v>
+      </c>
+      <c r="D15" t="str">
+        <v>e21720a5d36e4e61942bdaee37bbb762</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>8.9770000000000003</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C16" t="str">
+        <v>000416U96</v>
+      </c>
+      <c r="D16" t="str">
+        <v>69359e4aa0874e57abd9149e5916e97a</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>11.436</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C17" t="str">
+        <v>088281L24</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0756b68f713441ba92d84138c7e3c2ef</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>12.307</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C18" t="str">
+        <v>143287GQ7</v>
+      </c>
+      <c r="D18" t="str">
+        <v>4d206b548def443ca7fcf9d6dff04090</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2.39</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C19" t="str">
+        <v>088281L32</v>
+      </c>
+      <c r="D19" t="str">
+        <v>57e31664c2f6462c85e0447ba47abbd0</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>13.308999999999999</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C20" t="str">
+        <v>003430BM6</v>
+      </c>
+      <c r="D20" t="str">
+        <v>312c62a7d9ad4c3a9fef8487b92c9b27</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>28</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013143D7-38A6-45C6-A578-78BBFCC40594}">
+  <dimension ref="B3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3858,17 +2824,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c253593-49a7-4463-b207-0813a3f8082f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8455AA86904E94292C0C029A5024359" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c28621ea8543e5fc7a35ba9a1a833cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xmlns:ns3="3cdf4850-e481-438f-9771-726c1c74d6ac" xmlns:ns4="9c253593-49a7-4463-b207-0813a3f8082f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53320a8e934f44b6d72dfed56c19e0f3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
@@ -4124,7 +3079,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4133,18 +3088,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B438AA54-9294-43B8-9562-1B43FAF50496}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c253593-49a7-4463-b207-0813a3f8082f"/>
-    <ds:schemaRef ds:uri="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c253593-49a7-4463-b207-0813a3f8082f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46F9E6-4F9A-4156-93B3-B2AC8347BE19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4164,10 +3119,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3E607-EB69-4365-BB27-93CD0A14AB9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B438AA54-9294-43B8-9562-1B43FAF50496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c253593-49a7-4463-b207-0813a3f8082f"/>
+    <ds:schemaRef ds:uri="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,49 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF986AF-1B40-44B3-AC39-304113548733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61121CD1-C06F-46B6-A44C-C2DAB43A7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="2745" windowWidth="28800" windowHeight="15345" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
+    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="10" r:id="rId1"/>
     <sheet name="lambda" sheetId="15" r:id="rId2"/>
     <sheet name="tmswap" sheetId="16" r:id="rId3"/>
     <sheet name="examples" sheetId="13" r:id="rId4"/>
-    <sheet name="different" sheetId="17" r:id="rId5"/>
-    <sheet name="match" sheetId="18" r:id="rId6"/>
+    <sheet name="no_crossing" sheetId="17" r:id="rId5"/>
+    <sheet name="give_up" sheetId="19" r:id="rId6"/>
+    <sheet name="match" sheetId="18" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="absolute" comment="comment">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,rule("absdiff",_xlpm.a,"le",quote(_xlpm.v)))</definedName>
     <definedName name="array">_xlfn.LAMBDA(_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, "["&amp;_xlfn.TEXTJOIN(", ",TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g)&amp;"]")</definedName>
     <definedName name="bind">examples!$L$12</definedName>
-    <definedName name="both_housing">Rules!#REF!</definedName>
-    <definedName name="buyer">_xlfn.LAMBDA(_xlpm.a,"$"&amp;_xlpm.a)</definedName>
     <definedName name="clientId">tmswap!$E$3</definedName>
-    <definedName name="clientId_ne">Rules!#REF!</definedName>
     <definedName name="cmp">examples!$R$3</definedName>
     <definedName name="cusip">tmswap!$F$3</definedName>
+    <definedName name="eq">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" == "&amp;_xlpm.b)</definedName>
     <definedName name="expr">examples!$P$3</definedName>
+    <definedName name="ge">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &gt;= "&amp;_xlpm.b)</definedName>
+    <definedName name="gt">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &gt; "&amp;_xlpm.b)</definedName>
     <definedName name="jointext">_xlfn.LAMBDA(_xlpm.sep,_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, _xlfn.TEXTJOIN(_xlpm.sep,TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g))</definedName>
+    <definedName name="le">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;= "&amp;_xlpm.b)</definedName>
     <definedName name="logical">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,rule(,_xlpm.a,_xlpm.c,))</definedName>
-    <definedName name="match_housing">Rules!#REF!</definedName>
-    <definedName name="match_tobacco">Rules!#REF!</definedName>
+    <definedName name="lt">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt; "&amp;_xlpm.b)</definedName>
     <definedName name="match_type">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, cmp(_xlpm.t,"ne"), _xlpm.subtype, rule("first",_xlpm.t,"eq", _xlpm.u), cmp(array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
     <definedName name="member">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
     <definedName name="name" localSheetId="3">examples!$Q$3</definedName>
     <definedName name="name">tmswap!$C$3</definedName>
+    <definedName name="ne">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;&gt; "&amp;_xlpm.b)</definedName>
+    <definedName name="oas" localSheetId="5">give_up!$E$3</definedName>
+    <definedName name="oas">lambda!$E$15</definedName>
     <definedName name="object">_xlfn.LAMBDA(_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, "{"&amp;_xlfn.TEXTJOIN(", ",TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g)&amp;"}")</definedName>
-    <definedName name="ops">lambda!$B$7:$C$12</definedName>
+    <definedName name="ops">lambda!$B$12:$C$17</definedName>
     <definedName name="positionId">tmswap!$G$3</definedName>
     <definedName name="prepare">examples!$L$11</definedName>
-    <definedName name="quote">_xlfn.LAMBDA(_xlpm.x, _xlfn.LET(_xlpm.y, TRIM(_xlpm.x), IF(LEN(_xlpm.y) = 0, "", _xlfn.SWITCH(TYPE(_xlpm.x), 1, _xlpm.x, 2, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), 4, IF(_xlpm.x, "true", "false"), 64, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), ""))))</definedName>
     <definedName name="relative">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, "ABS(("&amp;_xlpm.a&amp;" - "&amp;_xlpm.b&amp;")/"&amp;_xlpm.a&amp;")")</definedName>
     <definedName name="rule">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, member("expr",_xlpm.e), member("args",_xlpm.a), member("cmp", _xlpm.c), member("value", _xlpm.v))&amp;"}")</definedName>
-    <definedName name="rulesetName">#REF!</definedName>
     <definedName name="same_if">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, cmp(_xlpm.a,"eq"), cmp(array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="select_cusip_name">_xlfn.LAMBDA(_xlpm.c,_xlpm.n,_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlpm.n&amp;" from swapRequests where cusip = """&amp;_xlpm.c&amp;""""),1))</definedName>
-    <definedName name="seller">_xlfn.LAMBDA(_xlpm.b, "@"&amp;_xlpm.b)</definedName>
     <definedName name="similar">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
+    <definedName name="sql">_xlfn.LAMBDA(_xlpm.x, _xlfn.LET(_xlpm.y, TRIM(_xlpm.x), IF(LEN(_xlpm.y) = 0, "", _xlfn.SWITCH(TYPE(_xlpm.x), 1, _xlpm.x, 2, IF(OR(LEFT(_xlpm.y, 1) = "[",LEFT(_xlpm.y,1) = "'"), _xlpm.y, "'"&amp;_xlpm.y&amp;"'"), 4, IF(_xlpm.x, "1=1", "1=0"), 64, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), ""))))</definedName>
     <definedName name="stmt">examples!$L$10</definedName>
     <definedName name="table">tmswap!$B$3</definedName>
     <definedName name="thresh">_xlfn.LAMBDA(_xlpm.v,_xlpm.w,"${"&amp;_xlpm.v&amp;"Threshold:="&amp;_xlpm.w&amp;"}")</definedName>
@@ -100,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
   <si>
     <t>clientId</t>
   </si>
@@ -360,12 +362,6 @@
     <t>expected</t>
   </si>
   <si>
-    <t>buyer</t>
-  </si>
-  <si>
-    <t>seller</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -414,24 +410,6 @@
     <t>gt</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
     <t>positionId</t>
   </si>
   <si>
@@ -447,10 +425,40 @@
     <t>limit</t>
   </si>
   <si>
-    <t>different</t>
-  </si>
-  <si>
     <t>useOfProceedsGroup</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Excel to SQL conversion</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>single quotes</t>
+  </si>
+  <si>
+    <t>SQL proxy for boolean</t>
+  </si>
+  <si>
+    <t>oas</t>
+  </si>
+  <si>
+    <t>[quoted]</t>
+  </si>
+  <si>
+    <t>'quoted'</t>
+  </si>
+  <si>
+    <t>Different clients.</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>give_up</t>
   </si>
 </sst>
 </file>
@@ -579,7 +587,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -604,6 +612,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -924,9 +935,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1363,114 +1374,222 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA30ED07-F215-4E7E-908A-9303B2059751}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2">_xlfn.LAMBDA(_xlpm.a,"$"&amp;_xlpm.a)(D2)</f>
-        <v>$a</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">_xlfn.LAMBDA(_xlpm.x, _xlfn.LET(_xlpm.y, TRIM(_xlpm.x), IF(LEN(_xlpm.y) = 0, "", _xlfn.SWITCH(TYPE(_xlpm.x), 1, _xlpm.x, 2, IF(OR(LEFT(_xlpm.y, 1) = "[",LEFT(_xlpm.y,1) = "'"), _xlpm.y, "'"&amp;_xlpm.y&amp;"'"), 4, IF(_xlpm.x, "1=1", "1=0"), 64, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), ""))))(D3)</f>
+        <v>1=0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str" cm="1">
+        <f t="array" ref="G3">_xll.XLL.GET.NAME(B3)</f>
+        <v>=LAMBDA(x, LET(y, TRIM(x), IF(LEN(y) = 0, "", SWITCH(TYPE(x), 1, x, 2, IF(OR(LEFT(y, 1) = "[",LEFT(y,1) = "'"), y, "'"&amp;y&amp;"'"), 4, IF(x, "1=1", "1=0"), 64, IF(LEFT(y, 1) = "[", y, """"&amp;y&amp;""""), ""))))</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.23</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" ref="C4">sql(B4)</f>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">sql(B5)</f>
+        <v>'string'</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">sql(B6)</f>
+        <v>1=1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">sql(B7)</f>
+        <v>1=0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8">sql(B8)</f>
+        <v>[quoted]</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9">sql(B9)</f>
+        <v>'quoted'</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10">sql(B10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" == "&amp;_xlpm.b)(D12,oas)</f>
+        <v>a == b</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">buyer(D2)</f>
-        <v>$a</v>
-      </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">_xll.XLL.GET.NAME(B2)</f>
-        <v>=LAMBDA(a,"$"&amp;a)</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="str" cm="1">
-        <f t="array" ref="C3">_xlfn.LAMBDA(_xlpm.b, "@"&amp;_xlpm.b)(D3)</f>
-        <v>@b</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="str" cm="1">
-        <f t="array" ref="E3">seller(D3)</f>
-        <v>@b</v>
-      </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">_xll.XLL.GET.NAME(B3)</f>
-        <v>=LAMBDA(b, "@"&amp;b)</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b" cm="1">
-        <f t="array" ref="C5">_xll.XLL.GET.NAME(B2,B5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="G12" t="str" cm="1">
+        <f t="array" ref="G12">_xll.XLL.GET.NAME(B12)</f>
+        <v>=LAMBDA(a,b, a&amp;" == "&amp;b)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &gt;= "&amp;_xlpm.b)(D13,oas)</f>
+        <v>a &gt;= b</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="str" cm="1">
+        <f t="array" ref="G13">_xll.XLL.GET.NAME(B13)</f>
+        <v>=LAMBDA(a,b, a&amp;" &gt;= "&amp;b)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="str" cm="1">
+        <f t="array" ref="C14">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &gt; "&amp;_xlpm.b)(D14,oas)</f>
+        <v>a &gt; b</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="str" cm="1">
+        <f t="array" ref="G14">_xll.XLL.GET.NAME(B14)</f>
+        <v>=LAMBDA(a,b, a&amp;" &gt; "&amp;b)</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C15" t="str" cm="1">
+        <f t="array" ref="C15">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;= "&amp;_xlpm.b)(D15,oas)</f>
+        <v>a &lt;= b</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="str" cm="1">
+        <f t="array" ref="G15">_xll.XLL.GET.NAME(B15)</f>
+        <v>=LAMBDA(a,b, a&amp;" &lt;= "&amp;b)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="str" cm="1">
+        <f t="array" ref="C16">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt; "&amp;_xlpm.b)(D16,oas)</f>
+        <v>a &lt; b</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="str" cm="1">
+        <f t="array" ref="G16">_xll.XLL.GET.NAME(B16)</f>
+        <v>=LAMBDA(a,b, a&amp;" &lt; "&amp;b)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>105</v>
+      <c r="C17" t="str" cm="1">
+        <f t="array" ref="C17">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;&gt; "&amp;_xlpm.b)(D17,oas)</f>
+        <v>a &lt;&gt; b</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="str" cm="1">
+        <f t="array" ref="G17">_xll.XLL.GET.NAME(B17)</f>
+        <v>=LAMBDA(a,b, a&amp;" &lt;&gt; "&amp;b)</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:C12">
-    <sortCondition ref="B7:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:C17">
+    <sortCondition ref="B12:B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1481,8 +1600,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1498,45 +1617,45 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" cm="1">
         <f t="array" ref="C2">_xll.\SQL.DB("db/tmswap.db")</f>
-        <v>1454380321728</v>
+        <v>2506795966640</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>25</v>
@@ -2276,7 +2395,7 @@
         <v>85</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2350,7 +2469,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -2361,18 +2480,18 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2381,10 +2500,10 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -2392,17 +2511,17 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2412,21 +2531,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DB934-EBCF-423A-A8F2-6B61D523A6D6}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:I3">tmswap!E4:L5</f>
+        <f t="array" ref="B2:D2">tmswap!E4:G4</f>
         <v>clientId</v>
       </c>
       <c r="C2" t="str">
@@ -2435,231 +2555,107 @@
       <c r="D2" t="str">
         <v>positionId</v>
       </c>
-      <c r="E2" t="str">
-        <v>coupon</v>
-      </c>
-      <c r="F2" t="str">
-        <v>term</v>
-      </c>
-      <c r="G2" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="H2" t="str">
-        <v>useOfProceeds</v>
-      </c>
-      <c r="I2" t="str">
-        <v>useOfProceedsGroup</v>
+      <c r="E2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="str">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:D3">tmswap!E3:G3</f>
         <v>CLT3414</v>
       </c>
       <c r="C3" t="str">
-        <v>215543MJ5</v>
+        <v>56682HCT4</v>
       </c>
       <c r="D3" t="str">
-        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
-      </c>
-      <c r="E3">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E3" s="11" cm="1">
+        <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>3.222</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>2475</v>
       </c>
-      <c r="H3">
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
+      <c r="H3" s="11" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="I3" s="11">
+        <v>105.837</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6">C5&amp;" &lt;&gt; '"&amp;_xll.EVAL(C5)&amp;"'"</f>
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5">ne(D5,sql(_xll.EVAL(D5)))</f>
         <v>clientId &lt;&gt; 'CLT3414'</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="str" cm="1">
-        <f t="array" ref="B8">"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,B2:I2)&amp;" from swapRequests where "&amp;_xll.SQL.WHERE(B6:B6)</f>
-        <v>select clientId, cusip, positionId, coupon, term, quantity, useOfProceeds, useOfProceedsGroup from swapRequests where ((clientId &lt;&gt; 'CLT3414'))</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9">
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13">"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,B2:I2)&amp;" from swapRequests where "&amp;_xll.SQL.WHERE(E5:E5)</f>
+        <v>select clientId, cusip, positionId, coupon, term, quantity, clientId, price from swapRequests where ((clientId &lt;&gt; 'CLT3414'))</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10:I20">_xll.SQL.QUERY(tmswap,B8:C9)</f>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15:I25">_xll.SQL.QUERY(tmswap,B13:C14)</f>
         <v>clientId</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C15" t="str">
         <v>cusip</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D15" t="str">
         <v>positionId</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E15" t="str">
         <v>coupon</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F15" t="str">
         <v>term</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G15" t="str">
         <v>quantity</v>
       </c>
-      <c r="H10" t="str">
-        <v>useOfProceeds</v>
-      </c>
-      <c r="I10" t="str">
-        <v>useOfProceedsGroup</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="C11" t="str">
-        <v>089563NF3</v>
-      </c>
-      <c r="D11" t="str">
-        <v>9185c83341a64e2bbdb51d6ab649af4a</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>3.4740000000000002</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="C12" t="str">
-        <v>089563NG1</v>
-      </c>
-      <c r="D12" t="str">
-        <v>46b6386108834679b36a6dae0120b3a2</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>4.4740000000000002</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="C13" t="str">
-        <v>088365JA0</v>
-      </c>
-      <c r="D13" t="str">
-        <v>796324c045eb4296a425b5abcb157673</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>7.9779999999999998</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>28</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="C14" t="str">
-        <v>143357XK2</v>
-      </c>
-      <c r="D14" t="str">
-        <v>d9d05bc0818e485e8128d8680d83d567</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>2.6040000000000001</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="C15" t="str">
-        <v>088365JB8</v>
-      </c>
-      <c r="D15" t="str">
-        <v>e21720a5d36e4e61942bdaee37bbb762</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>8.9770000000000003</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>28</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
+      <c r="H15" t="str">
+        <v>clientId</v>
+      </c>
+      <c r="I15" t="str">
+        <v>price</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2667,25 +2663,25 @@
         <v>CLT3424</v>
       </c>
       <c r="C16" t="str">
-        <v>000416U96</v>
+        <v>089563NF3</v>
       </c>
       <c r="D16" t="str">
-        <v>69359e4aa0874e57abd9149e5916e97a</v>
+        <v>9185c83341a64e2bbdb51d6ab649af4a</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>11.436</v>
+        <v>3.4740000000000002</v>
       </c>
       <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="H16" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>106.854</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -2693,25 +2689,25 @@
         <v>CLT3424</v>
       </c>
       <c r="C17" t="str">
-        <v>088281L24</v>
+        <v>089563NG1</v>
       </c>
       <c r="D17" t="str">
-        <v>0756b68f713441ba92d84138c7e3c2ef</v>
+        <v>46b6386108834679b36a6dae0120b3a2</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>12.307</v>
+        <v>4.4740000000000002</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="H17">
-        <v>20</v>
+      <c r="H17" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>109.14100000000001</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -2719,25 +2715,25 @@
         <v>CLT3424</v>
       </c>
       <c r="C18" t="str">
-        <v>143287GQ7</v>
+        <v>088365JA0</v>
       </c>
       <c r="D18" t="str">
-        <v>4d206b548def443ca7fcf9d6dff04090</v>
+        <v>796324c045eb4296a425b5abcb157673</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>2.39</v>
+        <v>7.9779999999999998</v>
       </c>
       <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
         <v>20</v>
       </c>
+      <c r="H18" t="str">
+        <v>CLT3424</v>
+      </c>
       <c r="I18">
-        <v>3</v>
+        <v>111.83</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -2745,25 +2741,25 @@
         <v>CLT3424</v>
       </c>
       <c r="C19" t="str">
-        <v>088281L32</v>
+        <v>143357XK2</v>
       </c>
       <c r="D19" t="str">
-        <v>57e31664c2f6462c85e0447ba47abbd0</v>
+        <v>d9d05bc0818e485e8128d8680d83d567</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>13.308999999999999</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
-      <c r="H19">
-        <v>20</v>
+      <c r="H19" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>105.432</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -2771,25 +2767,155 @@
         <v>CLT3424</v>
       </c>
       <c r="C20" t="str">
+        <v>088365JB8</v>
+      </c>
+      <c r="D20" t="str">
+        <v>e21720a5d36e4e61942bdaee37bbb762</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>8.9770000000000003</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="I20">
+        <v>111.235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C21" t="str">
+        <v>000416U96</v>
+      </c>
+      <c r="D21" t="str">
+        <v>69359e4aa0874e57abd9149e5916e97a</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>11.436</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="I21">
+        <v>104.568</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C22" t="str">
+        <v>088281L24</v>
+      </c>
+      <c r="D22" t="str">
+        <v>0756b68f713441ba92d84138c7e3c2ef</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>12.307</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="I22">
+        <v>103.03700000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C23" t="str">
+        <v>143287GQ7</v>
+      </c>
+      <c r="D23" t="str">
+        <v>4d206b548def443ca7fcf9d6dff04090</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2.39</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="I23">
+        <v>101.736</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C24" t="str">
+        <v>088281L32</v>
+      </c>
+      <c r="D24" t="str">
+        <v>57e31664c2f6462c85e0447ba47abbd0</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>13.308999999999999</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="I24">
+        <v>102.334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C25" t="str">
         <v>003430BM6</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D25" t="str">
         <v>312c62a7d9ad4c3a9fef8487b92c9b27</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>8.7690000000000001</v>
       </c>
-      <c r="G20">
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="H20">
-        <v>28</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
+      <c r="H25" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="I25">
+        <v>103.851</v>
       </c>
     </row>
   </sheetData>
@@ -2798,6 +2924,91 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768303C7-CC82-4191-A3CB-AF9F91F1CF03}">
+  <dimension ref="B2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:D2">tmswap!E4:G4</f>
+        <v>clientId</v>
+      </c>
+      <c r="C2" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D2" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:D3">tmswap!E3:G3</f>
+        <v>CLT3414</v>
+      </c>
+      <c r="C3" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>3.222</v>
+      </c>
+      <c r="H3">
+        <v>2475</v>
+      </c>
+      <c r="I3">
+        <v>105.837</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" t="str">
+        <f>C5&amp;" - "&amp;oas</f>
+        <v>oas - -1.55506737542336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013143D7-38A6-45C6-A578-78BBFCC40594}">
   <dimension ref="B3:C3"/>
   <sheetViews>
@@ -2812,10 +3023,10 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3080,15 +3291,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c253593-49a7-4463-b207-0813a3f8082f">
@@ -3097,6 +3299,15 @@
     <TaxCatchAll xmlns="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3120,14 +3331,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3E607-EB69-4365-BB27-93CD0A14AB9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B438AA54-9294-43B8-9562-1B43FAF50496}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3136,4 +3339,12 @@
     <ds:schemaRef ds:uri="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3E607-EB69-4365-BB27-93CD0A14AB9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61121CD1-C06F-46B6-A44C-C2DAB43A7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F72C82-C5BD-4274-A6C5-7B8BADB3D45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
+    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="10" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="tmswap" sheetId="16" r:id="rId3"/>
     <sheet name="examples" sheetId="13" r:id="rId4"/>
     <sheet name="no_crossing" sheetId="17" r:id="rId5"/>
-    <sheet name="give_up" sheetId="19" r:id="rId6"/>
-    <sheet name="match" sheetId="18" r:id="rId7"/>
+    <sheet name="abs_diff" sheetId="19" r:id="rId6"/>
+    <sheet name="same_if" sheetId="18" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="absolute" comment="comment">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,rule("absdiff",_xlpm.a,"le",quote(_xlpm.v)))</definedName>
@@ -41,7 +41,7 @@
     <definedName name="name" localSheetId="3">examples!$Q$3</definedName>
     <definedName name="name">tmswap!$C$3</definedName>
     <definedName name="ne">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;&gt; "&amp;_xlpm.b)</definedName>
-    <definedName name="oas" localSheetId="5">give_up!$E$3</definedName>
+    <definedName name="oas" localSheetId="5">abs_diff!$E$3</definedName>
     <definedName name="oas">lambda!$E$15</definedName>
     <definedName name="object">_xlfn.LAMBDA(_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, "{"&amp;_xlfn.TEXTJOIN(", ",TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g)&amp;"}")</definedName>
     <definedName name="ops">lambda!$B$12:$C$17</definedName>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>clientId</t>
   </si>
@@ -422,12 +422,6 @@
     <t>7d50ed8778a64c0bb477c7529931e7ca</t>
   </si>
   <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>useOfProceedsGroup</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -458,7 +452,40 @@
     <t>price</t>
   </si>
   <si>
-    <t>give_up</t>
+    <t>clientId_ne</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>abs_diff</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>same_if</t>
+  </si>
+  <si>
+    <t>Absolute value of difference less than tolerance.</t>
+  </si>
+  <si>
+    <t>Clients must be different.</t>
+  </si>
+  <si>
+    <t>Same state if issued in particular state</t>
   </si>
 </sst>
 </file>
@@ -1388,12 +1415,12 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="str" cm="1">
         <f t="array" ref="C3">_xlfn.LAMBDA(_xlpm.x, _xlfn.LET(_xlpm.y, TRIM(_xlpm.x), IF(LEN(_xlpm.y) = 0, "", _xlfn.SWITCH(TYPE(_xlpm.x), 1, _xlpm.x, 2, IF(OR(LEFT(_xlpm.y, 1) = "[",LEFT(_xlpm.y,1) = "'"), _xlpm.y, "'"&amp;_xlpm.y&amp;"'"), 4, IF(_xlpm.x, "1=1", "1=0"), 64, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), ""))))(D3)</f>
@@ -1418,14 +1445,14 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" t="str" cm="1">
         <f t="array" ref="C5">sql(B5)</f>
         <v>'string'</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1437,7 +1464,7 @@
         <v>1=1</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1451,7 +1478,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="str" cm="1">
         <f t="array" ref="C8">sql(B8)</f>
@@ -1460,7 +1487,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" t="str" cm="1">
         <f t="array" ref="C9">sql(B9)</f>
@@ -1601,7 +1628,7 @@
   <dimension ref="B2:L77"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1648,7 @@
       </c>
       <c r="C2" s="6" cm="1">
         <f t="array" ref="C2">_xll.\SQL.DB("db/tmswap.db")</f>
-        <v>2506795966640</v>
+        <v>1432437190688</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -2531,16 +2558,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DB934-EBCF-423A-A8F2-6B61D523A6D6}">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2556,7 +2584,7 @@
         <v>positionId</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>26</v>
@@ -2568,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -2582,9 +2610,9 @@
       <c r="D3" t="str">
         <v>7d50ed8778a64c0bb477c7529931e7ca</v>
       </c>
-      <c r="E3" s="11" cm="1">
+      <c r="E3" s="11" t="str" cm="1">
         <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
-        <v>5</v>
+        <v>CLT3414</v>
       </c>
       <c r="F3" s="11">
         <v>3.222</v>
@@ -2601,61 +2629,124 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="str" cm="1">
-        <f t="array" ref="E5">ne(D5,sql(_xll.EVAL(D5)))</f>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.DROP(_xll.SQL.QUERY(tmswap,D7),1)</f>
+        <v>CLT3414</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" ref="D7">"select "&amp;C6&amp;" from swapRequests where positionId = "&amp;sql(positionId)</f>
+        <v>select clientId from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, B2:E2)&amp;", "</f>
+        <v xml:space="preserve">clientId, cusip, positionId, clientId, </v>
+      </c>
+      <c r="E8" t="str" cm="1">
+        <f t="array" ref="E8">"clientId &lt;&gt; "&amp;sql(C7)</f>
         <v>clientId &lt;&gt; 'CLT3414'</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,C6:D6)</f>
+        <v>clientId_ne</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="str" cm="1">
-        <f t="array" ref="B13">"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,B2:I2)&amp;" from swapRequests where "&amp;_xll.SQL.WHERE(E5:E5)</f>
-        <v>select clientId, cusip, positionId, coupon, term, quantity, clientId, price from swapRequests where ((clientId &lt;&gt; 'CLT3414'))</v>
+      <c r="B13" s="5" t="str" cm="1">
+        <f t="array" ref="B13:F23">_xll.SQL.QUERY(tmswap,C8:G11)</f>
+        <v>clientId</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <v>clientId</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <v>clientId_ne</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
+      <c r="B14" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C14" t="str">
+        <v>089563NF3</v>
+      </c>
+      <c r="D14" t="str">
+        <v>9185c83341a64e2bbdb51d6ab649af4a</v>
+      </c>
+      <c r="E14" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="str" cm="1">
-        <f t="array" ref="B15:I25">_xll.SQL.QUERY(tmswap,B13:C14)</f>
-        <v>clientId</v>
+      <c r="B15" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="C15" t="str">
-        <v>cusip</v>
+        <v>089563NG1</v>
       </c>
       <c r="D15" t="str">
-        <v>positionId</v>
+        <v>46b6386108834679b36a6dae0120b3a2</v>
       </c>
       <c r="E15" t="str">
-        <v>coupon</v>
-      </c>
-      <c r="F15" t="str">
-        <v>term</v>
-      </c>
-      <c r="G15" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="H15" t="str">
-        <v>clientId</v>
-      </c>
-      <c r="I15" t="str">
-        <v>price</v>
+        <v>CLT3424</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2663,259 +2754,135 @@
         <v>CLT3424</v>
       </c>
       <c r="C16" t="str">
-        <v>089563NF3</v>
+        <v>088365JA0</v>
       </c>
       <c r="D16" t="str">
-        <v>9185c83341a64e2bbdb51d6ab649af4a</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
+        <v>796324c045eb4296a425b5abcb157673</v>
+      </c>
+      <c r="E16" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F16">
-        <v>3.4740000000000002</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="H16" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I16">
-        <v>106.854</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <v>CLT3424</v>
       </c>
       <c r="C17" t="str">
-        <v>089563NG1</v>
+        <v>143357XK2</v>
       </c>
       <c r="D17" t="str">
-        <v>46b6386108834679b36a6dae0120b3a2</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
+        <v>d9d05bc0818e485e8128d8680d83d567</v>
+      </c>
+      <c r="E17" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F17">
-        <v>4.4740000000000002</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I17">
-        <v>109.14100000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <v>CLT3424</v>
       </c>
       <c r="C18" t="str">
-        <v>088365JA0</v>
+        <v>088365JB8</v>
       </c>
       <c r="D18" t="str">
-        <v>796324c045eb4296a425b5abcb157673</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
+        <v>e21720a5d36e4e61942bdaee37bbb762</v>
+      </c>
+      <c r="E18" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F18">
-        <v>7.9779999999999998</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
-      <c r="H18" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I18">
-        <v>111.83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <v>CLT3424</v>
       </c>
       <c r="C19" t="str">
-        <v>143357XK2</v>
+        <v>000416U96</v>
       </c>
       <c r="D19" t="str">
-        <v>d9d05bc0818e485e8128d8680d83d567</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
+        <v>69359e4aa0874e57abd9149e5916e97a</v>
+      </c>
+      <c r="E19" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F19">
-        <v>2.6040000000000001</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I19">
-        <v>105.432</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <v>CLT3424</v>
       </c>
       <c r="C20" t="str">
-        <v>088365JB8</v>
+        <v>088281L24</v>
       </c>
       <c r="D20" t="str">
-        <v>e21720a5d36e4e61942bdaee37bbb762</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
+        <v>0756b68f713441ba92d84138c7e3c2ef</v>
+      </c>
+      <c r="E20" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F20">
-        <v>8.9770000000000003</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I20">
-        <v>111.235</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <v>CLT3424</v>
       </c>
       <c r="C21" t="str">
-        <v>000416U96</v>
+        <v>143287GQ7</v>
       </c>
       <c r="D21" t="str">
-        <v>69359e4aa0874e57abd9149e5916e97a</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
+        <v>4d206b548def443ca7fcf9d6dff04090</v>
+      </c>
+      <c r="E21" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F21">
-        <v>11.436</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I21">
-        <v>104.568</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <v>CLT3424</v>
       </c>
       <c r="C22" t="str">
-        <v>088281L24</v>
+        <v>088281L32</v>
       </c>
       <c r="D22" t="str">
-        <v>0756b68f713441ba92d84138c7e3c2ef</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
+        <v>57e31664c2f6462c85e0447ba47abbd0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F22">
-        <v>12.307</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I22">
-        <v>103.03700000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <v>CLT3424</v>
       </c>
       <c r="C23" t="str">
-        <v>143287GQ7</v>
+        <v>003430BM6</v>
       </c>
       <c r="D23" t="str">
-        <v>4d206b548def443ca7fcf9d6dff04090</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
+        <v>312c62a7d9ad4c3a9fef8487b92c9b27</v>
+      </c>
+      <c r="E23" t="str">
+        <v>CLT3424</v>
       </c>
       <c r="F23">
-        <v>2.39</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I23">
-        <v>101.736</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="C24" t="str">
-        <v>088281L32</v>
-      </c>
-      <c r="D24" t="str">
-        <v>57e31664c2f6462c85e0447ba47abbd0</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>13.308999999999999</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I24">
-        <v>102.334</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="C25" t="str">
-        <v>003430BM6</v>
-      </c>
-      <c r="D25" t="str">
-        <v>312c62a7d9ad4c3a9fef8487b92c9b27</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>8.7690000000000001</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25" t="str">
-        <v>CLT3424</v>
-      </c>
-      <c r="I25">
-        <v>103.851</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2925,13 +2892,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768303C7-CC82-4191-A3CB-AF9F91F1CF03}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="str" cm="1">
@@ -2945,19 +2917,19 @@
         <v>positionId</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -2971,36 +2943,292 @@
       <c r="D3" t="str">
         <v>7d50ed8778a64c0bb477c7529931e7ca</v>
       </c>
-      <c r="E3" cm="1">
+      <c r="E3" s="11" cm="1">
         <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
         <v>-1.5550673754233579</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
+        <v>3.222</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2475</v>
+      </c>
+      <c r="H3" s="11">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>3.222</v>
-      </c>
-      <c r="H3">
-        <v>2475</v>
-      </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <v>105.837</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" cm="1">
+        <f t="array" ref="C7">_xlfn.DROP(_xll.SQL.QUERY(tmswap,D7),1)</f>
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" ref="D7">"select "&amp;C6&amp;" from swapRequests where positionId = "&amp;sql(positionId)</f>
+        <v>select oas from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, B2:E2)&amp;", "</f>
+        <v xml:space="preserve">clientId, cusip, positionId, oas, </v>
+      </c>
+      <c r="E8" t="str">
+        <f>"ABS(oas - "&amp;C7&amp;")"</f>
+        <v>ABS(oas - -1.55506737542336)</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,B6:D6)</f>
+        <v>abs_diff_oas_le</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5" t="str">
-        <f>C5&amp;" - "&amp;oas</f>
-        <v>oas - -1.55506737542336</v>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10">le(G8,E6)</f>
+        <v>abs_diff_oas_le &lt;= 15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="str">
+        <f>G8</f>
+        <v>abs_diff_oas_le</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="str" cm="1">
+        <f t="array" ref="B14:F24">_xll.SQL.QUERY(tmswap, C8:G12)</f>
+        <v>clientId</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <v>oas</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <v>abs_diff_oas_le</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C15" t="str">
+        <v>59333NW66</v>
+      </c>
+      <c r="D15" t="str">
+        <v>4f88a124fd8c4f98a2a1d8c656bf2f2f</v>
+      </c>
+      <c r="E15">
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="F15">
+        <v>1.9984014443252818E-15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C16" t="str">
+        <v>60637ATQ5</v>
+      </c>
+      <c r="D16" t="str">
+        <v>d5c2b3ace2354e789d175634bd588c80</v>
+      </c>
+      <c r="E16">
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="F16">
+        <v>1.9984014443252818E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C17" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
+      </c>
+      <c r="E17">
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="F17">
+        <v>1.9984014443252818E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C18" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D18" t="str">
+        <v>73e88cd91df843fbbec3f56f049518e4</v>
+      </c>
+      <c r="E18">
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="F18">
+        <v>1.9984014443252818E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C19" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D19" t="str">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E19">
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="F19">
+        <v>1.9984014443252818E-15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C20" t="str">
+        <v>97712DQT6</v>
+      </c>
+      <c r="D20" t="str">
+        <v>17432dfb2ccd40259e5e984db8b825ef</v>
+      </c>
+      <c r="E20">
+        <v>-1.553897718567012</v>
+      </c>
+      <c r="F20">
+        <v>1.1696568563479559E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C21" t="str">
+        <v>25476FWE4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0f68851375074095a8d7fabfdb4135a5</v>
+      </c>
+      <c r="E21">
+        <v>-1.5438427170486027</v>
+      </c>
+      <c r="F21">
+        <v>1.1224658374757279E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C22" t="str">
+        <v>45505TKA8</v>
+      </c>
+      <c r="D22" t="str">
+        <v>cd884eb162764d22b1e212862fff2df8</v>
+      </c>
+      <c r="E22">
+        <v>-1.5434691644850895</v>
+      </c>
+      <c r="F22">
+        <v>1.1598210938270404E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C23" t="str">
+        <v>24919PJX3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>7cad460f1dcc40a1b04153dce2b49b00</v>
+      </c>
+      <c r="E23">
+        <v>-1.5696167664927974</v>
+      </c>
+      <c r="F23">
+        <v>1.4549391069437423E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C24" t="str">
+        <v>86804BBY7</v>
+      </c>
+      <c r="D24" t="str">
+        <v>dd4f0795a6ee4f4c8cc1c421697c53b6</v>
+      </c>
+      <c r="E24">
+        <v>-1.5382614715786522</v>
+      </c>
+      <c r="F24">
+        <v>1.6805903844707704E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3010,24 +3238,153 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013143D7-38A6-45C6-A578-78BBFCC40594}">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:D2">tmswap!E4:G4</f>
+        <v>clientId</v>
+      </c>
+      <c r="C2" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D2" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:D3">tmswap!E3:G3</f>
+        <v>CLT3414</v>
+      </c>
+      <c r="C3" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E3" s="11" t="str" cm="1">
+        <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
+        <v>AZ</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.222</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2475</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <v>AZ</v>
+      </c>
+      <c r="I3" s="11">
+        <v>105.837</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">_xlfn.DROP(_xll.SQL.QUERY(tmswap,D7),1)</f>
+        <v>AZ</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" ref="D7">"select "&amp;C6&amp;" from swapRequests where positionId = "&amp;sql(positionId)</f>
+        <v>select state from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, B2:E2)&amp;", "</f>
+        <v xml:space="preserve">clientId, cusip, positionId, state, </v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,B6:D6)</f>
+        <v>same_if_state_NY</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="str">
+        <f>G8</f>
+        <v>same_if_state_NY</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="e" cm="1">
+        <f t="array" ref="B13">_xll.SQL.QUERY(tmswap, C8:G11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,6 +3648,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c253593-49a7-4463-b207-0813a3f8082f">
@@ -3299,15 +3665,6 @@
     <TaxCatchAll xmlns="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3331,6 +3688,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3E607-EB69-4365-BB27-93CD0A14AB9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B438AA54-9294-43B8-9562-1B43FAF50496}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3339,12 +3704,4 @@
     <ds:schemaRef ds:uri="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3E607-EB69-4365-BB27-93CD0A14AB9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBCE392-8545-4A3D-8094-C7A58D45DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A6FD19-8646-45B0-A100-685318EA3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
+    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="11" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="implies" sheetId="22" r:id="rId8"/>
     <sheet name="equal" sheetId="18" r:id="rId9"/>
     <sheet name="cases" sheetId="20" r:id="rId10"/>
+    <sheet name="logical" sheetId="23" r:id="rId11"/>
+    <sheet name="measure" sheetId="24" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="absolute" comment="comment">_xlfn.LAMBDA(_xlpm.a,_xlpm.b,"ABS("&amp;_xlpm.a&amp;"-"&amp;_xlpm.b&amp;")")</definedName>
@@ -39,13 +41,16 @@
     <definedName name="jointext">_xlfn.LAMBDA(_xlpm.sep,_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, _xlfn.TEXTJOIN(_xlpm.sep,TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g))</definedName>
     <definedName name="le">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;= "&amp;_xlpm.b)</definedName>
     <definedName name="logical" localSheetId="7">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,implies!rule(,_xlpm.a,_xlpm.c,))</definedName>
+    <definedName name="logical" localSheetId="11">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,measure!rule(,_xlpm.a,_xlpm.c,))</definedName>
     <definedName name="logical" localSheetId="6">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,relative!rule(,_xlpm.a,_xlpm.c,))</definedName>
     <definedName name="logical">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,rule(,_xlpm.a,_xlpm.c,))</definedName>
     <definedName name="lt">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt; "&amp;_xlpm.b)</definedName>
     <definedName name="match_type" localSheetId="7">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, [0]!cmp(_xlpm.t,"ne"), _xlpm.subtype, implies!rule("first",_xlpm.t,"eq", _xlpm.u), [0]!cmp([0]!array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
+    <definedName name="match_type" localSheetId="11">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, [0]!cmp(_xlpm.t,"ne"), _xlpm.subtype, measure!rule("first",_xlpm.t,"eq", _xlpm.u), [0]!cmp([0]!array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
     <definedName name="match_type" localSheetId="6">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, [0]!cmp(_xlpm.t,"ne"), _xlpm.subtype, relative!rule("first",_xlpm.t,"eq", _xlpm.u), [0]!cmp([0]!array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
     <definedName name="match_type">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, cmp(_xlpm.t,"ne"), _xlpm.subtype, rule("first",_xlpm.t,"eq", _xlpm.u), cmp(array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
     <definedName name="member" localSheetId="7">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
+    <definedName name="member" localSheetId="11">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
     <definedName name="member" localSheetId="6">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
     <definedName name="member">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
     <definedName name="name" localSheetId="3">examples!$Q$3</definedName>
@@ -59,13 +64,16 @@
     <definedName name="prepare">examples!$L$11</definedName>
     <definedName name="relative">_xlfn.LAMBDA(_xlpm.a,_xlpm.b,"ABS(("&amp;_xlpm.a&amp;"-"&amp;_xlpm.b&amp;")/"&amp;_xlpm.a&amp;")")</definedName>
     <definedName name="rule" localSheetId="7">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, implies!member("expr",_xlpm.e), implies!member("args",_xlpm.a), implies!member("cmp", _xlpm.c), implies!member("value", _xlpm.v))&amp;"}")</definedName>
+    <definedName name="rule" localSheetId="11">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, measure!member("expr",_xlpm.e), measure!member("args",_xlpm.a), measure!member("cmp", _xlpm.c), measure!member("value", _xlpm.v))&amp;"}")</definedName>
     <definedName name="rule" localSheetId="6">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, relative!member("expr",_xlpm.e), relative!member("args",_xlpm.a), relative!member("cmp", _xlpm.c), relative!member("value", _xlpm.v))&amp;"}")</definedName>
     <definedName name="rule">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, member("expr",_xlpm.e), member("args",_xlpm.a), member("cmp", _xlpm.c), member("value", _xlpm.v))&amp;"}")</definedName>
     <definedName name="same_if" localSheetId="7">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, implies!rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, [0]!cmp(_xlpm.a,"eq"), [0]!cmp([0]!array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
+    <definedName name="same_if" localSheetId="11">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, measure!rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, [0]!cmp(_xlpm.a,"eq"), [0]!cmp([0]!array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="same_if" localSheetId="6">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, relative!rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, [0]!cmp(_xlpm.a,"eq"), [0]!cmp([0]!array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="same_if">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, cmp(_xlpm.a,"eq"), cmp(array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="select_cusip_name">_xlfn.LAMBDA(_xlpm.c,_xlpm.n,_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlpm.n&amp;" from swapRequests where cusip = """&amp;_xlpm.c&amp;""""),1))</definedName>
     <definedName name="similar" localSheetId="7">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,implies!rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
+    <definedName name="similar" localSheetId="11">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,measure!rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
     <definedName name="similar" localSheetId="6">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,relative!rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
     <definedName name="similar">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
     <definedName name="sql">_xlfn.LAMBDA(_xlpm.x, _xlfn.LET(_xlpm.y, TRIM(_xlpm.x), IF(LEN(_xlpm.y) = 0, "", _xlfn.SWITCH(TYPE(_xlpm.x), 1, _xlpm.x, 2, IF(OR(LEFT(_xlpm.y, 1) = "[",LEFT(_xlpm.y,1) = "'"), _xlpm.y, "'"&amp;_xlpm.y&amp;"'"), 4, IF(_xlpm.x, "1=1", "1=0"), 64, IF(LEFT(_xlpm.y, 1) = "[", _xlpm.y, """"&amp;_xlpm.y&amp;""""), ""))))</definedName>
@@ -77,6 +85,7 @@
     <definedName name="value">examples!$S$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
   <si>
     <t>clientId</t>
   </si>
@@ -521,6 +530,15 @@
   </si>
   <si>
     <t>215543MJ5</t>
+  </si>
+  <si>
+    <t>BIND</t>
+  </si>
+  <si>
+    <t>PREPARE</t>
+  </si>
+  <si>
+    <t>STMT</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3451FB64-09FF-49A8-9B9E-608A626B1D40}">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1650,6 +1668,541 @@
       <c r="C21" t="s">
         <v>115</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AEA9EB-C690-47AC-AB8E-35A874640307}">
+  <dimension ref="B2:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:D2">tmswap!E4:G4</f>
+        <v>clientId</v>
+      </c>
+      <c r="C2" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D2" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:D3">tmswap!E3:G3</f>
+        <v>CLT3414</v>
+      </c>
+      <c r="C3" t="str">
+        <v>215543MJ5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E3" s="11" t="str" cm="1">
+        <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
+        <v>CLT3414</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.222</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2475</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <v>AZ</v>
+      </c>
+      <c r="I3" s="11">
+        <v>105.837</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>E2</f>
+        <v>clientId</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">_xll.\SQL.RULE_LOGICAL(B5,C5)</f>
+        <v>2735670048064</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">_xll.SQL.RULE.BIND(D5)</f>
+        <v>@clientId</v>
+      </c>
+      <c r="D7" t="str">
+        <f>E3</f>
+        <v>CLT3414</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.TEXTJOIN(", ",TRUE,_xlfn.ANCHORARRAY(B2))&amp;", "</f>
+        <v xml:space="preserve">clientId, cusip, positionId, </v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8">_xll.SQL.RULE.SELECT(D5)</f>
+        <v>clientId</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8">_xll.SQL.RULE.AS(D5)</f>
+        <v>clientId</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10">_xll.SQL.RULE.WHERE(D5)</f>
+        <v>(@clientId &lt;&gt; clientId)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xll.\SQL.STMT(tmswap)</f>
+        <v>2734767253984</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xll.SQL.PREPARE(C13, B8:F11)</f>
+        <v>2734767253984</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14">_xll.SQL.SQL(C14)</f>
+        <v xml:space="preserve">SELECT clientId, cusip, positionId,  clientId AS clientId FROM swapRequests    WHERE (@clientId &lt;&gt; clientId)    LIMIT 10   </v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">_xll.SQL.BIND(C14, C7, D7)</f>
+        <v>2734767253984</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15">_xll.SQL.SQL(C15,TRUE)</f>
+        <v xml:space="preserve">SELECT clientId, cusip, positionId,  clientId AS clientId FROM swapRequests    WHERE ('CLT3414' &lt;&gt; clientId)    LIMIT 10   </v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="str" cm="1">
+        <f t="array" ref="B17:E27">_xll.SQL.EXEC(C15)</f>
+        <v>clientId</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <v>clientId</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C18" t="str">
+        <v>089563NF3</v>
+      </c>
+      <c r="D18" t="str">
+        <v>9185c83341a64e2bbdb51d6ab649af4a</v>
+      </c>
+      <c r="E18" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C19" t="str">
+        <v>089563NG1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>46b6386108834679b36a6dae0120b3a2</v>
+      </c>
+      <c r="E19" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C20" t="str">
+        <v>088365JA0</v>
+      </c>
+      <c r="D20" t="str">
+        <v>796324c045eb4296a425b5abcb157673</v>
+      </c>
+      <c r="E20" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C21" t="str">
+        <v>143357XK2</v>
+      </c>
+      <c r="D21" t="str">
+        <v>d9d05bc0818e485e8128d8680d83d567</v>
+      </c>
+      <c r="E21" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C22" t="str">
+        <v>088365JB8</v>
+      </c>
+      <c r="D22" t="str">
+        <v>e21720a5d36e4e61942bdaee37bbb762</v>
+      </c>
+      <c r="E22" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C23" t="str">
+        <v>000416U96</v>
+      </c>
+      <c r="D23" t="str">
+        <v>69359e4aa0874e57abd9149e5916e97a</v>
+      </c>
+      <c r="E23" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C24" t="str">
+        <v>088281L24</v>
+      </c>
+      <c r="D24" t="str">
+        <v>0756b68f713441ba92d84138c7e3c2ef</v>
+      </c>
+      <c r="E24" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C25" t="str">
+        <v>143287GQ7</v>
+      </c>
+      <c r="D25" t="str">
+        <v>4d206b548def443ca7fcf9d6dff04090</v>
+      </c>
+      <c r="E25" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C26" t="str">
+        <v>088281L32</v>
+      </c>
+      <c r="D26" t="str">
+        <v>57e31664c2f6462c85e0447ba47abbd0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C27" t="str">
+        <v>003430BM6</v>
+      </c>
+      <c r="D27" t="str">
+        <v>312c62a7d9ad4c3a9fef8487b92c9b27</v>
+      </c>
+      <c r="E27" t="str">
+        <v>CLT3424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D67062D-77C7-49A5-AF63-55555AFA6835}">
+  <dimension ref="B2:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:D2">tmswap!E4:G4</f>
+        <v>clientId</v>
+      </c>
+      <c r="C2" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D2" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3:D3">tmswap!E3:G3</f>
+        <v>CLT3414</v>
+      </c>
+      <c r="C3" t="str">
+        <v>215543MJ5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E3" s="11" cm="1">
+        <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
+        <v>-1.5550673754233579</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.222</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2475</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <v>AZ</v>
+      </c>
+      <c r="I3" s="11">
+        <v>105.837</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="str">
+        <f>E2</f>
+        <v>oas</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">_xll.\SQL.RULE_MEASURE(B5,C5,D5)</f>
+        <v>2734130910720</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">_xll.SQL.RULE.BIND(E5)</f>
+        <v>@absolute_oas_le</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.TEXTJOIN(", ",TRUE,_xlfn.ANCHORARRAY(B2))&amp;", "</f>
+        <v xml:space="preserve">clientId, cusip, positionId, </v>
+      </c>
+      <c r="D8" t="e" cm="1">
+        <f t="array" ref="D8">_xll.SQL.RULE.SELECT(E5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8">_xll.SQL.RULE.AS(E5)</f>
+        <v>absolute_oas_le</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10">_xll.SQL.RULE.WHERE(E5)</f>
+        <v>(absolute_oas_le &lt;= @absolute_oas_le)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xll.\SQL.STMT(tmswap)</f>
+        <v>2734767250064</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="e" cm="1">
+        <f t="array" ref="C14">_xll.SQL.PREPARE(C13, B8:F11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D14" t="e" cm="1">
+        <f t="array" ref="D14">_xll.SQL.SQL(C14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="e" cm="1">
+        <f t="array" ref="C15">_xll.SQL.BIND(C14, C7, D7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="e" cm="1">
+        <f t="array" ref="D15">_xll.SQL.SQL(C15,TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="e" cm="1">
+        <f t="array" ref="B17">_xll.SQL.EXEC(C15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1995,7 +2548,7 @@
       </c>
       <c r="C2" s="6" cm="1">
         <f t="array" ref="C2">_xll.\SQL.DB("db/tmswap.db")</f>
-        <v>2246298584048</v>
+        <v>2735673708480</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -4638,6 +5191,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c253593-49a7-4463-b207-0813a3f8082f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8455AA86904E94292C0C029A5024359" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c28621ea8543e5fc7a35ba9a1a833cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xmlns:ns3="3cdf4850-e481-438f-9771-726c1c74d6ac" xmlns:ns4="9c253593-49a7-4463-b207-0813a3f8082f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53320a8e934f44b6d72dfed56c19e0f3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
@@ -4893,27 +5466,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3E607-EB69-4365-BB27-93CD0A14AB9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c253593-49a7-4463-b207-0813a3f8082f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7b3e5f17-5322-463f-bba8-bd578bc18dd2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B438AA54-9294-43B8-9562-1B43FAF50496}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c253593-49a7-4463-b207-0813a3f8082f"/>
+    <ds:schemaRef ds:uri="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D46F9E6-4F9A-4156-93B3-B2AC8347BE19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4931,23 +5503,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3E607-EB69-4365-BB27-93CD0A14AB9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B438AA54-9294-43B8-9562-1B43FAF50496}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c253593-49a7-4463-b207-0813a3f8082f"/>
-    <ds:schemaRef ds:uri="7b3e5f17-5322-463f-bba8-bd578bc18dd2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A6FD19-8646-45B0-A100-685318EA3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C9458-AEB6-41B7-99C1-A2294CEAEBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="11" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
+    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="7" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="10" r:id="rId1"/>
@@ -85,7 +85,6 @@
     <definedName name="value">examples!$S$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="138">
   <si>
     <t>clientId</t>
   </si>
@@ -539,6 +538,9 @@
   </si>
   <si>
     <t>STMT</t>
+  </si>
+  <si>
+    <t>AZ</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1756,7 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.\SQL.RULE_LOGICAL(B5,C5)</f>
-        <v>2735670048064</v>
+        <v>1832897117680</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1824,7 +1826,7 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.\SQL.STMT(tmswap)</f>
-        <v>2734767253984</v>
+        <v>1832896924288</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -1833,7 +1835,7 @@
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.SQL.PREPARE(C13, B8:F11)</f>
-        <v>2734767253984</v>
+        <v>1832896924288</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">_xll.SQL.SQL(C14)</f>
@@ -1846,7 +1848,7 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.SQL.BIND(C14, C7, D7)</f>
-        <v>2734767253984</v>
+        <v>1832896924288</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" ref="D15">_xll.SQL.SQL(C15,TRUE)</f>
@@ -2015,17 +2017,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D67062D-77C7-49A5-AF63-55555AFA6835}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2097,7 +2099,7 @@
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">_xll.\SQL.RULE_MEASURE(B5,C5,D5)</f>
-        <v>2734130910720</v>
+        <v>1832896451120</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2120,9 +2122,9 @@
         <f>_xlfn.TEXTJOIN(", ",TRUE,_xlfn.ANCHORARRAY(B2))&amp;", "</f>
         <v xml:space="preserve">clientId, cusip, positionId, </v>
       </c>
-      <c r="D8" t="e" cm="1">
-        <f t="array" ref="D8">_xll.SQL.RULE.SELECT(E5)</f>
-        <v>#N/A</v>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8">_xll.SQL.RULE.SELECT(E5,E3)</f>
+        <v>ABS(-1.555067375 - oas)</v>
       </c>
       <c r="E8" t="s">
         <v>116</v>
@@ -2166,43 +2168,189 @@
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.\SQL.STMT(tmswap)</f>
-        <v>2734767250064</v>
+        <v>1832896923568</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C14" t="e" cm="1">
+      <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.SQL.PREPARE(C13, B8:F11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D14" t="e" cm="1">
+        <v>1832896923568</v>
+      </c>
+      <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">_xll.SQL.SQL(C14)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve">SELECT clientId, cusip, positionId,  ABS(-1.555067375 - oas) AS absolute_oas_le FROM swapRequests    WHERE (absolute_oas_le &lt;= @absolute_oas_le)    LIMIT 10   </v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C15" t="e" cm="1">
+      <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.SQL.BIND(C14, C7, D7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" t="e" cm="1">
+        <v>1832896923568</v>
+      </c>
+      <c r="D15" t="str" cm="1">
         <f t="array" ref="D15">_xll.SQL.SQL(C15,TRUE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve">SELECT clientId, cusip, positionId,  ABS(-1.555067375 - oas) AS absolute_oas_le FROM swapRequests    WHERE (absolute_oas_le &lt;= 10.0)    LIMIT 10   </v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="e" cm="1">
-        <f t="array" ref="B17">_xll.SQL.EXEC(C15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="5" t="str" cm="1">
+        <f t="array" ref="B17:E27">_xll.SQL.EXEC(C15)</f>
+        <v>clientId</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <v>absolute_oas_le</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C18" t="str">
+        <v>215543MJ5</v>
+      </c>
+      <c r="D18" t="str">
+        <v>c70516b606de46729f2ef9bd6e9e3df9</v>
+      </c>
+      <c r="E18">
+        <v>6.9758518139314791</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C19" t="str">
+        <v>59333NW66</v>
+      </c>
+      <c r="D19" t="str">
+        <v>4f88a124fd8c4f98a2a1d8c656bf2f2f</v>
+      </c>
+      <c r="E19">
+        <v>4.2335801531123707E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C20" t="str">
+        <v>60637ATQ5</v>
+      </c>
+      <c r="D20" t="str">
+        <v>d5c2b3ace2354e789d175634bd588c80</v>
+      </c>
+      <c r="E20">
+        <v>4.2335801531123707E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C21" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
+      </c>
+      <c r="E21">
+        <v>4.2335801531123707E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C22" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D22" t="str">
+        <v>73e88cd91df843fbbec3f56f049518e4</v>
+      </c>
+      <c r="E22">
+        <v>4.2335801531123707E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C23" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E23">
+        <v>4.2335801531123707E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C24" t="str">
+        <v>664212CY1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>9b2923c7123e445c9e41085484f5b5a6</v>
+      </c>
+      <c r="E24">
+        <v>2.6279946459959884</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C25" t="str">
+        <v>662523N39</v>
+      </c>
+      <c r="D25" t="str">
+        <v>c8c0409bb55f4be9b38dcc5fb455758e</v>
+      </c>
+      <c r="E25">
+        <v>8.3614778697173833</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C26" t="str">
+        <v>645790MD5</v>
+      </c>
+      <c r="D26" t="str">
+        <v>11bfd09803da4618b4920ce0fdced586</v>
+      </c>
+      <c r="E26">
+        <v>8.3614778697173833</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C27" t="str">
+        <v>40934TAV5</v>
+      </c>
+      <c r="D27" t="str">
+        <v>582a1b4c7f6b48fc906d6137c5eeb67b</v>
+      </c>
+      <c r="E27">
+        <v>0.7641554175330123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,7 +2696,7 @@
       </c>
       <c r="C2" s="6" cm="1">
         <f t="array" ref="C2">_xll.\SQL.DB("db/tmswap.db")</f>
-        <v>2735673708480</v>
+        <v>1832896935728</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -4461,7 +4609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18F3790-C322-415B-B61D-F01B231BE685}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4482,7 +4632,7 @@
         <v>positionId</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>26</v>
@@ -4508,9 +4658,9 @@
       <c r="D3" t="str">
         <v>7d50ed8778a64c0bb477c7529931e7ca</v>
       </c>
-      <c r="E3" s="11" cm="1">
+      <c r="E3" s="11" t="str" cm="1">
         <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
-        <v>4</v>
+        <v>AZ</v>
       </c>
       <c r="F3" s="11">
         <v>3.222</v>
@@ -4556,10 +4706,10 @@
       </c>
       <c r="C6" t="str">
         <f>E2</f>
-        <v>useOfProceedsGroup</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>state</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
       </c>
       <c r="L6" t="s">
         <v>126</v>
@@ -4572,13 +4722,13 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" cm="1">
+      <c r="C7" t="str" cm="1">
         <f t="array" ref="C7">_xlfn.DROP(_xll.SQL.QUERY(tmswap,D7),1)</f>
-        <v>4</v>
+        <v>AZ</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" ref="D7">"select "&amp;C6&amp;" from swapRequests where positionId = "&amp;sql(positionId)</f>
-        <v>select useOfProceedsGroup from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
+        <v>select state from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
       </c>
       <c r="L7" t="s">
         <v>126</v>
@@ -4596,11 +4746,11 @@
       </c>
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(", ", TRUE, B2:E2)&amp;", "</f>
-        <v xml:space="preserve">clientId, cusip, positionId, useOfProceedsGroup, </v>
+        <v xml:space="preserve">clientId, cusip, positionId, state, </v>
       </c>
       <c r="E8" t="str">
         <f>C6</f>
-        <v>useOfProceedsGroup</v>
+        <v>state</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -4620,7 +4770,7 @@
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10">ne(sql(C7),C6)&amp;" OR "&amp;eq(sql(D6),C6)</f>
-        <v>4 &lt;&gt; useOfProceedsGroup OR 1 = useOfProceedsGroup</v>
+        <v>'AZ' &lt;&gt; state OR 'AZ' = state</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -4643,10 +4793,10 @@
         <v>positionId</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v>useOfProceedsGroup</v>
+        <v>state</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>useOfProceedsGroup</v>
+        <v>state</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -4659,11 +4809,11 @@
       <c r="D14" t="str">
         <v>c70516b606de46729f2ef9bd6e9e3df9</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
+      <c r="E14" t="str">
+        <v>IL</v>
+      </c>
+      <c r="F14" t="str">
+        <v>IL</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -4676,11 +4826,11 @@
       <c r="D15" t="str">
         <v>4f88a124fd8c4f98a2a1d8c656bf2f2f</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="E15" t="str">
+        <v>FL</v>
+      </c>
+      <c r="F15" t="str">
+        <v>FL</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -4688,16 +4838,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C16" t="str">
-        <v>664212CY1</v>
+        <v>60637ATQ5</v>
       </c>
       <c r="D16" t="str">
-        <v>9b2923c7123e445c9e41085484f5b5a6</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
+        <v>d5c2b3ace2354e789d175634bd588c80</v>
+      </c>
+      <c r="E16" t="str">
+        <v>MO</v>
+      </c>
+      <c r="F16" t="str">
+        <v>MO</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -4705,16 +4855,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C17" t="str">
-        <v>57583PHD4</v>
+        <v>56682HCT4</v>
       </c>
       <c r="D17" t="str">
-        <v>3f51646282114da89a75ad2e1cf51e98</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
+        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
+      </c>
+      <c r="E17" t="str">
+        <v>AZ</v>
+      </c>
+      <c r="F17" t="str">
+        <v>AZ</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -4722,16 +4872,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C18" t="str">
-        <v>662523N39</v>
+        <v>56682HCT4</v>
       </c>
       <c r="D18" t="str">
-        <v>c8c0409bb55f4be9b38dcc5fb455758e</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
+        <v>73e88cd91df843fbbec3f56f049518e4</v>
+      </c>
+      <c r="E18" t="str">
+        <v>AZ</v>
+      </c>
+      <c r="F18" t="str">
+        <v>AZ</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -4739,16 +4889,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C19" t="str">
-        <v>40934TAV5</v>
+        <v>56682HCT4</v>
       </c>
       <c r="D19" t="str">
-        <v>582a1b4c7f6b48fc906d6137c5eeb67b</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E19" t="str">
+        <v>AZ</v>
+      </c>
+      <c r="F19" t="str">
+        <v>AZ</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -4756,16 +4906,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C20" t="str">
-        <v>40934TAV5</v>
+        <v>664212CY1</v>
       </c>
       <c r="D20" t="str">
-        <v>aad4f22c79a6435b93a2096c9e445d7c</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
+        <v>9b2923c7123e445c9e41085484f5b5a6</v>
+      </c>
+      <c r="E20" t="str">
+        <v>IA</v>
+      </c>
+      <c r="F20" t="str">
+        <v>IA</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -4773,16 +4923,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C21" t="str">
-        <v>40934TAV5</v>
+        <v>57583PHD4</v>
       </c>
       <c r="D21" t="str">
-        <v>aec895a251784eb998cd0c2d92990513</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
+        <v>3f51646282114da89a75ad2e1cf51e98</v>
+      </c>
+      <c r="E21" t="str">
+        <v>MA</v>
+      </c>
+      <c r="F21" t="str">
+        <v>MA</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -4790,16 +4940,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C22" t="str">
-        <v>13034AV49</v>
+        <v>662523N39</v>
       </c>
       <c r="D22" t="str">
-        <v>90c9cfc764564b259234a3e982b39e9f</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
+        <v>c8c0409bb55f4be9b38dcc5fb455758e</v>
+      </c>
+      <c r="E22" t="str">
+        <v>AK</v>
+      </c>
+      <c r="F22" t="str">
+        <v>AK</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -4807,16 +4957,16 @@
         <v>CLT3414</v>
       </c>
       <c r="C23" t="str">
-        <v>180848XS7</v>
+        <v>645790MD5</v>
       </c>
       <c r="D23" t="str">
-        <v>e7af391d4aa84d6da34a3897c4dc9fbb</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="F23">
-        <v>7</v>
+        <v>11bfd09803da4618b4920ce0fdced586</v>
+      </c>
+      <c r="E23" t="str">
+        <v>NJ</v>
+      </c>
+      <c r="F23" t="str">
+        <v>NJ</v>
       </c>
     </row>
   </sheetData>

--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\xlladdins\xll_sqlite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C9458-AEB6-41B7-99C1-A2294CEAEBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD94501C-F547-4DF0-8311-11B71CFCD262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" firstSheet="2" activeTab="7" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
+    <workbookView xWindow="6390" yWindow="4545" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{AFC3156B-8A0D-6344-9710-208CC7A0BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="10" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="no_crossing" sheetId="17" r:id="rId5"/>
     <sheet name="absolute" sheetId="19" r:id="rId6"/>
     <sheet name="relative" sheetId="21" r:id="rId7"/>
-    <sheet name="implies" sheetId="22" r:id="rId8"/>
+    <sheet name="cases" sheetId="20" r:id="rId8"/>
     <sheet name="equal" sheetId="18" r:id="rId9"/>
-    <sheet name="cases" sheetId="20" r:id="rId10"/>
+    <sheet name="implies" sheetId="22" r:id="rId10"/>
     <sheet name="logical" sheetId="23" r:id="rId11"/>
     <sheet name="measure" sheetId="24" r:id="rId12"/>
   </sheets>
@@ -40,16 +40,16 @@
     <definedName name="gt">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &gt; "&amp;_xlpm.b)</definedName>
     <definedName name="jointext">_xlfn.LAMBDA(_xlpm.sep,_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, _xlfn.TEXTJOIN(_xlpm.sep,TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g))</definedName>
     <definedName name="le">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;= "&amp;_xlpm.b)</definedName>
-    <definedName name="logical" localSheetId="7">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,implies!rule(,_xlpm.a,_xlpm.c,))</definedName>
+    <definedName name="logical" localSheetId="9">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,implies!rule(,_xlpm.a,_xlpm.c,))</definedName>
     <definedName name="logical" localSheetId="11">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,measure!rule(,_xlpm.a,_xlpm.c,))</definedName>
     <definedName name="logical" localSheetId="6">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,relative!rule(,_xlpm.a,_xlpm.c,))</definedName>
     <definedName name="logical">_xlfn.LAMBDA(_xlpm.c,_xlpm.a,rule(,_xlpm.a,_xlpm.c,))</definedName>
     <definedName name="lt">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt; "&amp;_xlpm.b)</definedName>
-    <definedName name="match_type" localSheetId="7">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, [0]!cmp(_xlpm.t,"ne"), _xlpm.subtype, implies!rule("first",_xlpm.t,"eq", _xlpm.u), [0]!cmp([0]!array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
+    <definedName name="match_type" localSheetId="9">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, [0]!cmp(_xlpm.t,"ne"), _xlpm.subtype, implies!rule("first",_xlpm.t,"eq", _xlpm.u), [0]!cmp([0]!array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
     <definedName name="match_type" localSheetId="11">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, [0]!cmp(_xlpm.t,"ne"), _xlpm.subtype, measure!rule("first",_xlpm.t,"eq", _xlpm.u), [0]!cmp([0]!array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
     <definedName name="match_type" localSheetId="6">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, [0]!cmp(_xlpm.t,"ne"), _xlpm.subtype, relative!rule("first",_xlpm.t,"eq", _xlpm.u), [0]!cmp([0]!array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
     <definedName name="match_type">_xlfn.LAMBDA(_xlpm.t,_xlpm.u,_xlfn.LET(_xlpm.type, cmp(_xlpm.t,"ne"), _xlpm.subtype, rule("first",_xlpm.t,"eq", _xlpm.u), cmp(array(_xlpm.type, _xlpm.subtype),"or")))</definedName>
-    <definedName name="member" localSheetId="7">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
+    <definedName name="member" localSheetId="9">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
     <definedName name="member" localSheetId="11">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
     <definedName name="member" localSheetId="6">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
     <definedName name="member">_xlfn.LAMBDA(_xlpm.k,_xlpm.v, IF(LEN(_xlpm.v)=0,"",IF(JSON,quote(_xlpm.k),_xlpm.k)&amp;": "&amp;quote(_xlpm.v)))</definedName>
@@ -58,21 +58,22 @@
     <definedName name="ne">_xlfn.LAMBDA(_xlpm.a,_xlpm.b, _xlpm.a&amp;" &lt;&gt; "&amp;_xlpm.b)</definedName>
     <definedName name="oas" localSheetId="5">absolute!$E$3</definedName>
     <definedName name="oas" localSheetId="6">relative!$E$3</definedName>
+    <definedName name="oas">measure!$D$6</definedName>
     <definedName name="object">_xlfn.LAMBDA(_xlop.a,_xlop.b,_xlop.c,_xlop.d,_xlop.e,_xlop.f,_xlop.g, "{"&amp;_xlfn.TEXTJOIN(", ",TRUE,_xlpm.a,_xlpm.b,_xlpm.c,_xlpm.d,_xlpm.e,_xlpm.f,_xlpm.g)&amp;"}")</definedName>
     <definedName name="ops">lambda!$B$12:$C$17</definedName>
     <definedName name="positionId">tmswap!$G$3</definedName>
     <definedName name="prepare">examples!$L$11</definedName>
     <definedName name="relative">_xlfn.LAMBDA(_xlpm.a,_xlpm.b,"ABS(("&amp;_xlpm.a&amp;"-"&amp;_xlpm.b&amp;")/"&amp;_xlpm.a&amp;")")</definedName>
-    <definedName name="rule" localSheetId="7">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, implies!member("expr",_xlpm.e), implies!member("args",_xlpm.a), implies!member("cmp", _xlpm.c), implies!member("value", _xlpm.v))&amp;"}")</definedName>
+    <definedName name="rule" localSheetId="9">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, implies!member("expr",_xlpm.e), implies!member("args",_xlpm.a), implies!member("cmp", _xlpm.c), implies!member("value", _xlpm.v))&amp;"}")</definedName>
     <definedName name="rule" localSheetId="11">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, measure!member("expr",_xlpm.e), measure!member("args",_xlpm.a), measure!member("cmp", _xlpm.c), measure!member("value", _xlpm.v))&amp;"}")</definedName>
     <definedName name="rule" localSheetId="6">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, relative!member("expr",_xlpm.e), relative!member("args",_xlpm.a), relative!member("cmp", _xlpm.c), relative!member("value", _xlpm.v))&amp;"}")</definedName>
     <definedName name="rule">_xlfn.LAMBDA(_xlpm.e,_xlpm.a,_xlpm.c,_xlpm.v, "{"&amp;_xlfn.TEXTJOIN(", ", TRUE, member("expr",_xlpm.e), member("args",_xlpm.a), member("cmp", _xlpm.c), member("value", _xlpm.v))&amp;"}")</definedName>
-    <definedName name="same_if" localSheetId="7">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, implies!rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, [0]!cmp(_xlpm.a,"eq"), [0]!cmp([0]!array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
+    <definedName name="same_if" localSheetId="9">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, implies!rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, [0]!cmp(_xlpm.a,"eq"), [0]!cmp([0]!array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="same_if" localSheetId="11">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, measure!rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, [0]!cmp(_xlpm.a,"eq"), [0]!cmp([0]!array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="same_if" localSheetId="6">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, relative!rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, [0]!cmp(_xlpm.a,"eq"), [0]!cmp([0]!array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="same_if">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.LET(_xlpm.nin, rule("first",_xlpm.a,"nin",_xlpm.v), _xlpm.same, cmp(_xlpm.a,"eq"), cmp(array(_xlfn.HSTACK(_xlpm.nin,_xlpm.same)),"or")))</definedName>
     <definedName name="select_cusip_name">_xlfn.LAMBDA(_xlpm.c,_xlpm.n,_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlpm.n&amp;" from swapRequests where cusip = """&amp;_xlpm.c&amp;""""),1))</definedName>
-    <definedName name="similar" localSheetId="7">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,implies!rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
+    <definedName name="similar" localSheetId="9">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,implies!rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
     <definedName name="similar" localSheetId="11">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,measure!rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
     <definedName name="similar" localSheetId="6">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,relative!rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
     <definedName name="similar">_xlfn.LAMBDA(_xlpm.a,_xlpm.v,rule("absdiff", _xlpm.a,"le", quote(_xlpm.v)))</definedName>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="144">
   <si>
     <t>clientId</t>
   </si>
@@ -540,14 +541,32 @@
     <t>STMT</t>
   </si>
   <si>
-    <t>AZ</t>
+    <t>QUERY</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>ciientId_ne</t>
+  </si>
+  <si>
+    <t>@uop</t>
+  </si>
+  <si>
+    <t>uop</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>&lt;&gt;1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,8 +619,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,8 +650,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -663,13 +694,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -701,10 +748,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1457,21 +1512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3451FB64-09FF-49A8-9B9E-608A626B1D40}">
-  <dimension ref="B2:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18F3790-C322-415B-B61D-F01B231BE685}">
+  <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:D2">tmswap!E4:G4</f>
         <v>clientId</v>
@@ -1483,7 +1538,7 @@
         <v>positionId</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>26</v>
@@ -1498,7 +1553,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3:D3">tmswap!E3:G3</f>
         <v>CLT3414</v>
@@ -1511,7 +1566,7 @@
       </c>
       <c r="E3" s="11" cm="1">
         <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
-        <v>2475</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11">
         <v>3.222</v>
@@ -1525,150 +1580,342 @@
       <c r="I3" s="11">
         <v>105.837</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">_xlfn.DROP(_xll.SQL.QUERY(tmswap,D8),1)</f>
-        <v>2475</v>
-      </c>
-      <c r="D8" t="str" cm="1">
-        <f t="array" ref="D8">"select "&amp;C7&amp;" from swapRequests where positionId = "&amp;sql(positionId)</f>
-        <v>select quantity from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="O3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="str">
+        <f>E2</f>
+        <v>useOfProceedsGroup</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;D6&amp;" from swapRequests where positionId = "&amp;sql(positionId)), 1)</f>
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.TEXTJOIN(", ", TRUE, B2:E2)&amp;", "</f>
+        <v xml:space="preserve">clientId, cusip, positionId, useOfProceedsGroup, </v>
+      </c>
+      <c r="E8" t="str">
+        <f>D6</f>
+        <v>useOfProceedsGroup</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="str" cm="1">
-        <f t="array" ref="G9">relative(C8,D9)</f>
-        <v>ABS((2475-quantity)/2475)</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C9:D9)</f>
-        <v>relative_quantity</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>C8</f>
-        <v>2475</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10">ne(sql(C7),D6)&amp;" OR "&amp;eq(sql(E6),D6)</f>
+        <v>'BIND' &lt;&gt; useOfProceedsGroup OR 4 = useOfProceedsGroup</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D11">
-        <v>500</v>
-      </c>
-      <c r="E11" t="b" cm="1">
-        <f t="array" ref="E11">_xll.EVAL(le(B11,D11))</f>
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G12" t="str">
-        <f>I9</f>
-        <v>relative_quantity</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>C8</f>
-        <v>2475</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14">
-        <v>500</v>
-      </c>
-      <c r="E14" t="b" cm="1">
-        <f t="array" ref="E14">_xll.EVAL(gt(B14,D14))</f>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f>I12</f>
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>114</v>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="str" cm="1">
+        <f t="array" ref="B13:F23">_xll.SQL.QUERY(tmswap, C8:G11)</f>
+        <v>clientId</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <v>cusip</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <v>positionId</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <v>useOfProceedsGroup</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <v>useOfProceedsGroup</v>
+      </c>
+      <c r="O13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C14" t="str">
+        <v>215543MJ5</v>
+      </c>
+      <c r="D14" t="str">
+        <v>c70516b606de46729f2ef9bd6e9e3df9</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C15" t="str">
+        <v>59333NW66</v>
+      </c>
+      <c r="D15" t="str">
+        <v>4f88a124fd8c4f98a2a1d8c656bf2f2f</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C16" t="str">
+        <v>60637ATQ5</v>
+      </c>
+      <c r="D16" t="str">
+        <v>d5c2b3ace2354e789d175634bd588c80</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C17" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C18" t="str">
+        <v>56682HCT4</v>
+      </c>
+      <c r="D18" t="str">
+        <v>73e88cd91df843fbbec3f56f049518e4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C19" t="str">
+        <v>56682HCT4</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.TEXTJOIN(", ", TRUE, B2:E2)&amp;", "</f>
-        <v xml:space="preserve">clientId, cusip, positionId, quantity, </v>
-      </c>
-      <c r="E19" t="str">
-        <f>G9</f>
-        <v>ABS((2475-quantity)/2475)</v>
-      </c>
-      <c r="F19" t="str">
-        <f>H9</f>
-        <v>AS</v>
-      </c>
-      <c r="G19" t="str">
-        <f>I9</f>
-        <v>relative_quantity</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>115</v>
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C20" t="str">
+        <v>664212CY1</v>
+      </c>
+      <c r="D20" t="str">
+        <v>9b2923c7123e445c9e41085484f5b5a6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C21" t="str">
+        <v>57583PHD4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>3f51646282114da89a75ad2e1cf51e98</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C22" t="str">
+        <v>662523N39</v>
+      </c>
+      <c r="D22" t="str">
+        <v>c8c0409bb55f4be9b38dcc5fb455758e</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <v>CLT3414</v>
+      </c>
+      <c r="C23" t="str">
+        <v>645790MD5</v>
+      </c>
+      <c r="D23" t="str">
+        <v>11bfd09803da4618b4920ce0fdced586</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1678,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AEA9EB-C690-47AC-AB8E-35A874640307}">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1938,7 @@
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:D2">tmswap!E4:G4</f>
         <v>clientId</v>
@@ -1718,7 +1965,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3:D3">tmswap!E3:G3</f>
         <v>CLT3414</v>
@@ -1746,7 +1993,7 @@
         <v>105.837</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>E2</f>
         <v>clientId</v>
@@ -1756,10 +2003,23 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">_xll.\SQL.RULE_LOGICAL(B5,C5)</f>
-        <v>1832897117680</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2875130509200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">_xll.SQL.RULE.QUERY(D5)</f>
+        <v>clientId</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;C6&amp;" from swapRequests where positionId = "&amp;sql(positionId)), 1)</f>
+        <v>CLT3414</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>134</v>
       </c>
@@ -1772,7 +2032,7 @@
         <v>CLT3414</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>114</v>
       </c>
@@ -1791,8 +2051,18 @@
         <f t="array" ref="F8">_xll.SQL.RULE.AS(D5)</f>
         <v>clientId</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8">sql(D6)&amp;" &lt;&gt; clientId"</f>
+        <v>'CLT3414' &lt;&gt; clientId</v>
+      </c>
+      <c r="K8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>117</v>
       </c>
@@ -1800,7 +2070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
@@ -1808,8 +2078,11 @@
         <f t="array" ref="C10">_xll.SQL.RULE.WHERE(D5)</f>
         <v>(@clientId &lt;&gt; clientId)</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>118</v>
       </c>
@@ -1817,38 +2090,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xll.\SQL.STMT(tmswap)</f>
-        <v>1832896924288</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2873494857840</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xll.SQL.PREPARE(C13, B8:F11)</f>
-        <v>1832896924288</v>
+        <v>2873494857840</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">_xll.SQL.SQL(C14)</f>
         <v xml:space="preserve">SELECT clientId, cusip, positionId,  clientId AS clientId FROM swapRequests    WHERE (@clientId &lt;&gt; clientId)    LIMIT 10   </v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xll.SQL.BIND(C14, C7, D7)</f>
-        <v>1832896924288</v>
+        <v>2873494857840</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" ref="D15">_xll.SQL.SQL(C15,TRUE)</f>
@@ -2017,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D67062D-77C7-49A5-AF63-55555AFA6835}">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2304,7 @@
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:D2">tmswap!E4:G4</f>
         <v>clientId</v>
@@ -2058,7 +2331,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3:D3">tmswap!E3:G3</f>
         <v>CLT3414</v>
@@ -2085,9 +2358,17 @@
       <c r="I3" s="11">
         <v>105.837</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="K3" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C5" t="str">
@@ -2097,24 +2378,40 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" cm="1">
-        <f t="array" ref="E5">_xll.\SQL.RULE_MEASURE(B5,C5,D5)</f>
-        <v>1832896451120</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">_xll.\SQL.RULE_MEASURE(B5,C5,D5)</f>
+        <v>2873822554128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">_xll.SQL.RULE.QUERY(F5)</f>
+        <v>oas</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;C6&amp;" from swapRequests where positionId = "&amp;sql(positionId)),1)</f>
+        <v>-1.5550673754233579</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">_xll.SQL.RULE.BIND(E5)</f>
+        <f t="array" ref="C7">_xll.SQL.RULE.BIND(F5)</f>
         <v>@absolute_oas_le</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>114</v>
       </c>
@@ -2123,18 +2420,18 @@
         <v xml:space="preserve">clientId, cusip, positionId, </v>
       </c>
       <c r="D8" t="str" cm="1">
-        <f t="array" ref="D8">_xll.SQL.RULE.SELECT(E5,E3)</f>
+        <f t="array" ref="D8">_xll.SQL.RULE.SELECT(F5,oas)</f>
         <v>ABS(-1.555067375 - oas)</v>
       </c>
       <c r="E8" t="s">
         <v>116</v>
       </c>
       <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">_xll.SQL.RULE.AS(E5)</f>
+        <f t="array" ref="F8">_xll.SQL.RULE.AS(F5)</f>
         <v>absolute_oas_le</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2142,88 +2439,86 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C10" t="str" cm="1">
-        <f t="array" ref="C10">_xll.SQL.RULE.WHERE(E5)</f>
+        <f t="array" ref="C10">_xll.SQL.RULE.WHERE(F5)</f>
         <v>(absolute_oas_le &lt;= @absolute_oas_le)</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="str">
+        <f>F8</f>
+        <v>absolute_oas_le</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C13" cm="1">
-        <f t="array" ref="C13">_xll.\SQL.STMT(tmswap)</f>
-        <v>1832896923568</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xll.\SQL.STMT(tmswap)</f>
+        <v>2873494857280</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C14" cm="1">
-        <f t="array" ref="C14">_xll.SQL.PREPARE(C13, B8:F11)</f>
-        <v>1832896923568</v>
-      </c>
-      <c r="D14" t="str" cm="1">
-        <f t="array" ref="D14">_xll.SQL.SQL(C14)</f>
-        <v xml:space="preserve">SELECT clientId, cusip, positionId,  ABS(-1.555067375 - oas) AS absolute_oas_le FROM swapRequests    WHERE (absolute_oas_le &lt;= @absolute_oas_le)    LIMIT 10   </v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">_xll.SQL.PREPARE(C14, B8:F12)</f>
+        <v>2873494857280</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15">_xll.SQL.SQL(C15)</f>
+        <v xml:space="preserve">SELECT clientId, cusip, positionId,  ABS(-1.555067375 - oas) AS absolute_oas_le FROM swapRequests    WHERE (absolute_oas_le &lt;= @absolute_oas_le)    ORDER BY absolute_oas_le ASC   LIMIT 10   </v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C15" cm="1">
-        <f t="array" ref="C15">_xll.SQL.BIND(C14, C7, D7)</f>
-        <v>1832896923568</v>
-      </c>
-      <c r="D15" t="str" cm="1">
-        <f t="array" ref="D15">_xll.SQL.SQL(C15,TRUE)</f>
-        <v xml:space="preserve">SELECT clientId, cusip, positionId,  ABS(-1.555067375 - oas) AS absolute_oas_le FROM swapRequests    WHERE (absolute_oas_le &lt;= 10.0)    LIMIT 10   </v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="str" cm="1">
-        <f t="array" ref="B17:E27">_xll.SQL.EXEC(C15)</f>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16">_xll.SQL.BIND(C15, C7, D7)</f>
+        <v>2873494857280</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16">_xll.SQL.SQL(C16,TRUE)</f>
+        <v xml:space="preserve">SELECT clientId, cusip, positionId,  ABS(-1.555067375 - oas) AS absolute_oas_le FROM swapRequests    WHERE (absolute_oas_le &lt;= 10.0)    ORDER BY absolute_oas_le ASC   LIMIT 10   </v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="str" cm="1">
+        <f t="array" ref="B18:E28">_xll.SQL.EXEC(C16)</f>
         <v>clientId</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C18" s="5" t="str">
         <v>cusip</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D18" s="5" t="str">
         <v>positionId</v>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E18" s="16" t="str">
         <v>absolute_oas_le</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C18" t="str">
-        <v>215543MJ5</v>
-      </c>
-      <c r="D18" t="str">
-        <v>c70516b606de46729f2ef9bd6e9e3df9</v>
-      </c>
-      <c r="E18">
-        <v>6.9758518139314791</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -2298,61 +2593,80 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
-        <v>CLT3414</v>
+        <v>CLT3424</v>
       </c>
       <c r="C24" t="str">
-        <v>664212CY1</v>
+        <v>97712DQT6</v>
       </c>
       <c r="D24" t="str">
-        <v>9b2923c7123e445c9e41085484f5b5a6</v>
+        <v>17432dfb2ccd40259e5e984db8b825ef</v>
       </c>
       <c r="E24">
-        <v>2.6279946459959884</v>
+        <v>1.1696564329879422E-3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
-        <v>CLT3414</v>
+        <v>CLT3424</v>
       </c>
       <c r="C25" t="str">
-        <v>662523N39</v>
+        <v>25476FWE4</v>
       </c>
       <c r="D25" t="str">
-        <v>c8c0409bb55f4be9b38dcc5fb455758e</v>
+        <v>0f68851375074095a8d7fabfdb4135a5</v>
       </c>
       <c r="E25">
-        <v>8.3614778697173833</v>
+        <v>1.1224657951397266E-2</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
-        <v>CLT3414</v>
+        <v>CLT3424</v>
       </c>
       <c r="C26" t="str">
-        <v>645790MD5</v>
+        <v>45505TKA8</v>
       </c>
       <c r="D26" t="str">
-        <v>11bfd09803da4618b4920ce0fdced586</v>
+        <v>cd884eb162764d22b1e212862fff2df8</v>
       </c>
       <c r="E26">
-        <v>8.3614778697173833</v>
+        <v>1.159821051491039E-2</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
-        <v>CLT3414</v>
+        <v>CLT3424</v>
       </c>
       <c r="C27" t="str">
-        <v>40934TAV5</v>
+        <v>24919PJX3</v>
       </c>
       <c r="D27" t="str">
-        <v>582a1b4c7f6b48fc906d6137c5eeb67b</v>
+        <v>7cad460f1dcc40a1b04153dce2b49b00</v>
       </c>
       <c r="E27">
-        <v>0.7641554175330123</v>
+        <v>1.4549391492797437E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <v>CLT3424</v>
+      </c>
+      <c r="C28" t="str">
+        <v>86804BBY7</v>
+      </c>
+      <c r="D28" t="str">
+        <v>dd4f0795a6ee4f4c8cc1c421697c53b6</v>
+      </c>
+      <c r="E28">
+        <v>1.680590342134769E-2</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{1FF7D696-213A-43B1-879D-B9796E6AD581}">
+      <formula1>$K$3:$K$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2676,7 +2990,7 @@
   <dimension ref="B2:L77"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2696,7 +3010,7 @@
       </c>
       <c r="C2" s="6" cm="1">
         <f t="array" ref="C2">_xll.\SQL.DB("db/tmswap.db")</f>
-        <v>1832896935728</v>
+        <v>2873494851600</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -2732,8 +3046,9 @@
       <c r="G4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
+      <c r="H4" s="12" t="str">
+        <f>name</f>
+        <v>positionId</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>26</v>
@@ -2769,9 +3084,9 @@
         <f t="array" ref="G5">_xlfn.DROP(_xll.SQL.QUERY(tmswap, "select "&amp;G4&amp;" from swapRequests where clientId = '"&amp;E3&amp;"' and cusip = '"&amp;F3&amp;"'"), 1)</f>
         <v>c70516b606de46729f2ef9bd6e9e3df9</v>
       </c>
-      <c r="H5" s="11" cm="1">
+      <c r="H5" s="11" t="str" cm="1">
         <f t="array" ref="H5:L5">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,H4:L4)&amp;" from swapRequests where positionId = '"&amp;G3&amp;"'"),1)</f>
-        <v>5</v>
+        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
       </c>
       <c r="I5" s="11">
         <v>3.222</v>
@@ -3935,7 +4250,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4606,21 +4921,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18F3790-C322-415B-B61D-F01B231BE685}">
-  <dimension ref="B2:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3451FB64-09FF-49A8-9B9E-608A626B1D40}">
+  <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:D2">tmswap!E4:G4</f>
         <v>clientId</v>
@@ -4632,7 +4947,7 @@
         <v>positionId</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>26</v>
@@ -4647,7 +4962,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3:D3">tmswap!E3:G3</f>
         <v>CLT3414</v>
@@ -4658,9 +4973,9 @@
       <c r="D3" t="str">
         <v>7d50ed8778a64c0bb477c7529931e7ca</v>
       </c>
-      <c r="E3" s="11" t="str" cm="1">
+      <c r="E3" s="11" cm="1">
         <f t="array" ref="E3:I3">_xlfn.DROP(_xll.SQL.QUERY(tmswap,"select "&amp;_xlfn.TEXTJOIN(", ",TRUE,E2:I2)&amp;" from swapRequests where positionId = "&amp;sql(D3)),1)</f>
-        <v>AZ</v>
+        <v>2475</v>
       </c>
       <c r="F3" s="11">
         <v>3.222</v>
@@ -4675,298 +4990,149 @@
         <v>105.837</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" cm="1">
+        <f t="array" ref="C8">_xlfn.DROP(_xll.SQL.QUERY(tmswap,D8),1)</f>
+        <v>2475</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8">"select "&amp;C7&amp;" from swapRequests where positionId = "&amp;sql(positionId)</f>
+        <v>select quantity from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="str" cm="1">
+        <f t="array" ref="G9">relative(C8,D9)</f>
+        <v>ABS((2475-quantity)/2475)</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,C9:D9)</f>
+        <v>relative_quantity</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>C8</f>
+        <v>2475</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11" t="b" cm="1">
+        <f t="array" ref="E11">_xll.EVAL(le(B11,D11))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f>I9</f>
+        <v>relative_quantity</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>C8</f>
+        <v>2475</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14" t="b" cm="1">
+        <f t="array" ref="E14">_xll.EVAL(gt(B14,D14))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5">
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>I12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="str">
-        <f>E2</f>
-        <v>state</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" t="str" cm="1">
-        <f t="array" ref="C7">_xlfn.DROP(_xll.SQL.QUERY(tmswap,D7),1)</f>
-        <v>AZ</v>
-      </c>
-      <c r="D7" t="str" cm="1">
-        <f t="array" ref="D7">"select "&amp;C6&amp;" from swapRequests where positionId = "&amp;sql(positionId)</f>
-        <v>select state from swapRequests where positionId = '7d50ed8778a64c0bb477c7529931e7ca'</v>
-      </c>
-      <c r="L7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>114</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(", ", TRUE, B2:E2)&amp;", "</f>
-        <v xml:space="preserve">clientId, cusip, positionId, state, </v>
-      </c>
-      <c r="E8" t="str">
-        <f>C6</f>
-        <v>state</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+        <v xml:space="preserve">clientId, cusip, positionId, quantity, </v>
+      </c>
+      <c r="E19" t="str">
+        <f>G9</f>
+        <v>ABS((2475-quantity)/2475)</v>
+      </c>
+      <c r="F19" t="str">
+        <f>H9</f>
+        <v>AS</v>
+      </c>
+      <c r="G19" t="str">
+        <f>I9</f>
+        <v>relative_quantity</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>117</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="L9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10">ne(sql(C7),C6)&amp;" OR "&amp;eq(sql(D6),C6)</f>
-        <v>'AZ' &lt;&gt; state OR 'AZ' = state</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="str" cm="1">
-        <f t="array" ref="B13:F23">_xll.SQL.QUERY(tmswap, C8:G11)</f>
-        <v>clientId</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <v>cusip</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <v>positionId</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <v>state</v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <v>state</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C14" t="str">
-        <v>215543MJ5</v>
-      </c>
-      <c r="D14" t="str">
-        <v>c70516b606de46729f2ef9bd6e9e3df9</v>
-      </c>
-      <c r="E14" t="str">
-        <v>IL</v>
-      </c>
-      <c r="F14" t="str">
-        <v>IL</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C15" t="str">
-        <v>59333NW66</v>
-      </c>
-      <c r="D15" t="str">
-        <v>4f88a124fd8c4f98a2a1d8c656bf2f2f</v>
-      </c>
-      <c r="E15" t="str">
-        <v>FL</v>
-      </c>
-      <c r="F15" t="str">
-        <v>FL</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C16" t="str">
-        <v>60637ATQ5</v>
-      </c>
-      <c r="D16" t="str">
-        <v>d5c2b3ace2354e789d175634bd588c80</v>
-      </c>
-      <c r="E16" t="str">
-        <v>MO</v>
-      </c>
-      <c r="F16" t="str">
-        <v>MO</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C17" t="str">
-        <v>56682HCT4</v>
-      </c>
-      <c r="D17" t="str">
-        <v>0b0bbbed9ef041c699c3c230b4db6f0d</v>
-      </c>
-      <c r="E17" t="str">
-        <v>AZ</v>
-      </c>
-      <c r="F17" t="str">
-        <v>AZ</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C18" t="str">
-        <v>56682HCT4</v>
-      </c>
-      <c r="D18" t="str">
-        <v>73e88cd91df843fbbec3f56f049518e4</v>
-      </c>
-      <c r="E18" t="str">
-        <v>AZ</v>
-      </c>
-      <c r="F18" t="str">
-        <v>AZ</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C19" t="str">
-        <v>56682HCT4</v>
-      </c>
-      <c r="D19" t="str">
-        <v>7d50ed8778a64c0bb477c7529931e7ca</v>
-      </c>
-      <c r="E19" t="str">
-        <v>AZ</v>
-      </c>
-      <c r="F19" t="str">
-        <v>AZ</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C20" t="str">
-        <v>664212CY1</v>
-      </c>
-      <c r="D20" t="str">
-        <v>9b2923c7123e445c9e41085484f5b5a6</v>
-      </c>
-      <c r="E20" t="str">
-        <v>IA</v>
-      </c>
-      <c r="F20" t="str">
-        <v>IA</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C21" t="str">
-        <v>57583PHD4</v>
-      </c>
-      <c r="D21" t="str">
-        <v>3f51646282114da89a75ad2e1cf51e98</v>
-      </c>
-      <c r="E21" t="str">
-        <v>MA</v>
-      </c>
-      <c r="F21" t="str">
-        <v>MA</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C22" t="str">
-        <v>662523N39</v>
-      </c>
-      <c r="D22" t="str">
-        <v>c8c0409bb55f4be9b38dcc5fb455758e</v>
-      </c>
-      <c r="E22" t="str">
-        <v>AK</v>
-      </c>
-      <c r="F22" t="str">
-        <v>AK</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="str">
-        <v>CLT3414</v>
-      </c>
-      <c r="C23" t="str">
-        <v>645790MD5</v>
-      </c>
-      <c r="D23" t="str">
-        <v>11bfd09803da4618b4920ce0fdced586</v>
-      </c>
-      <c r="E23" t="str">
-        <v>NJ</v>
-      </c>
-      <c r="F23" t="str">
-        <v>NJ</v>
       </c>
     </row>
   </sheetData>
@@ -4979,7 +5145,7 @@
   <dimension ref="B2:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
